--- a/example/xlsx/item.xlsx
+++ b/example/xlsx/item.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\truenas01\extra$\share\gz1417\projects\cfg_exporter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\projects\cfg_exporter\example\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -147,16 +147,10 @@
     <t>获得来源</t>
   </si>
   <si>
-    <t>key:1|macro:value</t>
-  </si>
-  <si>
     <t>macro:desc</t>
   </si>
   <si>
     <t>macro:name</t>
-  </si>
-  <si>
-    <t>not_empty</t>
   </si>
   <si>
     <t>钻石</t>
@@ -1669,6 +1663,14 @@
   </si>
   <si>
     <t>十级补给箱</t>
+  </si>
+  <si>
+    <t>not_empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key:1|macro:value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1711,9 +1713,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2018,14 +2026,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="137" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="113.125" bestFit="1" customWidth="1"/>
@@ -2202,18 +2212,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
+      <c r="D4" s="3" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -2221,17 +2231,17 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
@@ -2239,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J6" s="1">
         <v>4</v>
@@ -2256,22 +2266,22 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J7" s="1">
         <v>4</v>
@@ -2288,16 +2298,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -2306,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J8" s="1">
         <v>3</v>
@@ -2323,10 +2333,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1">
         <v>13</v>
@@ -2335,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -2352,22 +2362,22 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J10" s="1">
         <v>3</v>
@@ -2384,22 +2394,22 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2416,22 +2426,22 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2448,22 +2458,22 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G13" s="1">
         <v>401</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
@@ -2480,22 +2490,22 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1">
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J14" s="1">
         <v>3</v>
@@ -2512,22 +2522,22 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J15" s="1">
         <v>3</v>
@@ -2544,22 +2554,22 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1">
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J16" s="1">
         <v>3</v>
@@ -2576,22 +2586,22 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1">
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J17" s="1">
         <v>3</v>
@@ -2608,22 +2618,22 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1">
         <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J18" s="1">
         <v>3</v>
@@ -2640,22 +2650,22 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1">
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" s="1">
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J19" s="1">
         <v>3</v>
@@ -2672,10 +2682,10 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -2684,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -2701,22 +2711,22 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1">
         <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -2733,22 +2743,22 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -2765,22 +2775,22 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" s="1">
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G23" s="1">
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J23" s="1">
         <v>4</v>
@@ -2797,22 +2807,22 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1">
         <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -2829,22 +2839,22 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D25" s="1">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G25" s="1">
         <v>401</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J25" s="1">
         <v>2</v>
@@ -2861,19 +2871,19 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1">
         <v>2040101</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G26" s="1">
         <v>8</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J26" s="1">
         <v>4</v>
@@ -2882,7 +2892,7 @@
         <v>101</v>
       </c>
       <c r="L26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M26" s="1">
         <v>999999999</v>
@@ -2894,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -2902,19 +2912,19 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D27" s="1">
         <v>2040102</v>
       </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G27" s="1">
         <v>8</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J27" s="1">
         <v>4</v>
@@ -2923,7 +2933,7 @@
         <v>101</v>
       </c>
       <c r="L27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M27" s="1">
         <v>999999999</v>
@@ -2935,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="Q27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -2943,7 +2953,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D28" s="1">
         <v>2040201</v>
@@ -2952,13 +2962,13 @@
         <v>12052</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G28" s="1">
         <v>7</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J28" s="1">
         <v>5</v>
@@ -2984,7 +2994,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D29" s="1">
         <v>2040201</v>
@@ -2993,13 +3003,13 @@
         <v>12052</v>
       </c>
       <c r="F29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G29" s="1">
         <v>7</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J29" s="1">
         <v>5</v>
@@ -3025,7 +3035,7 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1">
         <v>2040201</v>
@@ -3034,13 +3044,13 @@
         <v>12052</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G30" s="1">
         <v>7</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J30" s="1">
         <v>5</v>
@@ -3066,7 +3076,7 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D31" s="1">
         <v>2040201</v>
@@ -3075,13 +3085,13 @@
         <v>12052</v>
       </c>
       <c r="F31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G31" s="1">
         <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J31" s="1">
         <v>5</v>
@@ -3107,7 +3117,7 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D32" s="1">
         <v>2040201</v>
@@ -3116,13 +3126,13 @@
         <v>12052</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G32" s="1">
         <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J32" s="1">
         <v>5</v>
@@ -3148,19 +3158,19 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D33" s="1">
         <v>2040211</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G33" s="1">
         <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J33" s="1">
         <v>4</v>
@@ -3186,7 +3196,7 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -3195,7 +3205,7 @@
         <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J34" s="1">
         <v>3</v>
@@ -3212,25 +3222,25 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D35" s="1">
         <v>50002</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G35" s="1">
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J35" s="1">
         <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -3244,25 +3254,25 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D36" s="1">
         <v>50007</v>
       </c>
       <c r="F36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G36" s="1">
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J36" s="1">
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -3276,25 +3286,25 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D37" s="1">
         <v>50004</v>
       </c>
       <c r="F37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G37" s="1">
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J37" s="1">
         <v>2</v>
       </c>
       <c r="L37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -3308,19 +3318,19 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D38" s="1">
         <v>2050000</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G38" s="1">
         <v>302</v>
       </c>
       <c r="I38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -3337,19 +3347,19 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D39" s="1">
         <v>2050001</v>
       </c>
       <c r="F39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G39" s="1">
         <v>302</v>
       </c>
       <c r="I39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -3366,19 +3376,19 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" s="1">
         <v>2050002</v>
       </c>
       <c r="F40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G40" s="1">
         <v>302</v>
       </c>
       <c r="I40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -3395,19 +3405,19 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D41" s="1">
         <v>2050100</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G41" s="1">
         <v>302</v>
       </c>
       <c r="I41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J41" s="1">
         <v>2</v>
@@ -3424,19 +3434,19 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D42" s="1">
         <v>2050101</v>
       </c>
       <c r="F42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G42" s="1">
         <v>302</v>
       </c>
       <c r="I42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J42" s="1">
         <v>2</v>
@@ -3453,19 +3463,19 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="1">
         <v>2050102</v>
       </c>
       <c r="F43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G43" s="1">
         <v>302</v>
       </c>
       <c r="I43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J43" s="1">
         <v>2</v>
@@ -3482,19 +3492,19 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="1">
         <v>2050200</v>
       </c>
       <c r="F44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G44" s="1">
         <v>302</v>
       </c>
       <c r="I44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J44" s="1">
         <v>3</v>
@@ -3511,19 +3521,19 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" s="1">
         <v>2050201</v>
       </c>
       <c r="F45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G45" s="1">
         <v>302</v>
       </c>
       <c r="I45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J45" s="1">
         <v>3</v>
@@ -3540,19 +3550,19 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="1">
         <v>2050202</v>
       </c>
       <c r="F46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G46" s="1">
         <v>302</v>
       </c>
       <c r="I46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J46" s="1">
         <v>3</v>
@@ -3569,19 +3579,19 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="1">
         <v>2050301</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G47" s="1">
         <v>302</v>
       </c>
       <c r="I47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J47" s="1">
         <v>4</v>
@@ -3598,19 +3608,19 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="1">
         <v>2050302</v>
       </c>
       <c r="F48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G48" s="1">
         <v>302</v>
       </c>
       <c r="I48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J48" s="1">
         <v>4</v>
@@ -3627,19 +3637,19 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="1">
         <v>2050303</v>
       </c>
       <c r="F49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G49" s="1">
         <v>302</v>
       </c>
       <c r="I49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J49" s="1">
         <v>4</v>
@@ -3656,19 +3666,19 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="1">
         <v>2050304</v>
       </c>
       <c r="F50" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G50" s="1">
         <v>302</v>
       </c>
       <c r="I50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J50" s="1">
         <v>4</v>
@@ -3685,19 +3695,19 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="1">
         <v>2050305</v>
       </c>
       <c r="F51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G51" s="1">
         <v>302</v>
       </c>
       <c r="I51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J51" s="1">
         <v>4</v>
@@ -3714,19 +3724,19 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="1">
         <v>2050306</v>
       </c>
       <c r="F52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G52" s="1">
         <v>302</v>
       </c>
       <c r="I52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J52" s="1">
         <v>4</v>
@@ -3743,7 +3753,7 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="1">
         <v>2060000</v>
@@ -3752,13 +3762,13 @@
         <v>12052</v>
       </c>
       <c r="F53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G53" s="1">
         <v>302</v>
       </c>
       <c r="I53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J53" s="1">
         <v>5</v>
@@ -3775,7 +3785,7 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="1">
         <v>2060000</v>
@@ -3784,13 +3794,13 @@
         <v>12052</v>
       </c>
       <c r="F54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G54" s="1">
         <v>302</v>
       </c>
       <c r="I54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J54" s="1">
         <v>5</v>
@@ -3807,7 +3817,7 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="1">
         <v>2060000</v>
@@ -3816,13 +3826,13 @@
         <v>12052</v>
       </c>
       <c r="F55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G55" s="1">
         <v>302</v>
       </c>
       <c r="I55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J55" s="1">
         <v>5</v>
@@ -3839,7 +3849,7 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="1">
         <v>2060000</v>
@@ -3848,13 +3858,13 @@
         <v>12052</v>
       </c>
       <c r="F56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G56" s="1">
         <v>302</v>
       </c>
       <c r="I56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J56" s="1">
         <v>5</v>
@@ -3871,7 +3881,7 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="1">
         <v>2060000</v>
@@ -3880,13 +3890,13 @@
         <v>12052</v>
       </c>
       <c r="F57" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G57" s="1">
         <v>302</v>
       </c>
       <c r="I57" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J57" s="1">
         <v>5</v>
@@ -3903,7 +3913,7 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D58" s="1">
         <v>2060000</v>
@@ -3912,13 +3922,13 @@
         <v>12052</v>
       </c>
       <c r="F58" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G58" s="1">
         <v>302</v>
       </c>
       <c r="I58" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J58" s="1">
         <v>5</v>
@@ -3935,7 +3945,7 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D59" s="1">
         <v>2060000</v>
@@ -3944,13 +3954,13 @@
         <v>12052</v>
       </c>
       <c r="F59" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G59" s="1">
         <v>302</v>
       </c>
       <c r="I59" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J59" s="1">
         <v>5</v>
@@ -3967,7 +3977,7 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" s="1">
         <v>2060000</v>
@@ -3976,13 +3986,13 @@
         <v>12052</v>
       </c>
       <c r="F60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G60" s="1">
         <v>302</v>
       </c>
       <c r="I60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J60" s="1">
         <v>5</v>
@@ -3999,7 +4009,7 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D61" s="1">
         <v>2060000</v>
@@ -4008,13 +4018,13 @@
         <v>12052</v>
       </c>
       <c r="F61" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G61" s="1">
         <v>302</v>
       </c>
       <c r="I61" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J61" s="1">
         <v>5</v>
@@ -4031,7 +4041,7 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D62" s="1">
         <v>2060000</v>
@@ -4040,13 +4050,13 @@
         <v>12052</v>
       </c>
       <c r="F62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G62" s="1">
         <v>302</v>
       </c>
       <c r="I62" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J62" s="1">
         <v>5</v>
@@ -4063,7 +4073,7 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D63" s="1">
         <v>2060000</v>
@@ -4072,13 +4082,13 @@
         <v>12052</v>
       </c>
       <c r="F63" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G63" s="1">
         <v>302</v>
       </c>
       <c r="I63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J63" s="1">
         <v>5</v>
@@ -4095,7 +4105,7 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D64" s="1">
         <v>2060000</v>
@@ -4104,13 +4114,13 @@
         <v>12052</v>
       </c>
       <c r="F64" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G64" s="1">
         <v>302</v>
       </c>
       <c r="I64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J64" s="1">
         <v>5</v>
@@ -4127,19 +4137,19 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G65" s="1">
         <v>7</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J65" s="1">
         <v>5</v>
@@ -4165,19 +4175,19 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G66" s="1">
         <v>7</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J66" s="1">
         <v>5</v>
@@ -4186,7 +4196,7 @@
         <v>2</v>
       </c>
       <c r="L66" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M66" s="1">
         <v>999999999</v>
@@ -4203,13 +4213,13 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D67" s="1">
         <v>2080001</v>
       </c>
       <c r="F67" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G67" s="1">
         <v>302</v>
@@ -4235,13 +4245,13 @@
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D68" s="1">
         <v>2080002</v>
       </c>
       <c r="F68" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G68" s="1">
         <v>302</v>
@@ -4267,13 +4277,13 @@
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D69" s="1">
         <v>2080003</v>
       </c>
       <c r="F69" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G69" s="1">
         <v>302</v>
@@ -4299,7 +4309,7 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D70" s="1">
         <v>2081001</v>
@@ -4308,7 +4318,7 @@
         <v>12052</v>
       </c>
       <c r="F70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G70" s="1">
         <v>302</v>
@@ -4328,7 +4338,7 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D71" s="1">
         <v>2082001</v>
@@ -4337,7 +4347,7 @@
         <v>12052</v>
       </c>
       <c r="F71" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G71" s="1">
         <v>302</v>
@@ -4357,19 +4367,19 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D72" s="1">
         <v>2040401</v>
       </c>
       <c r="F72" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G72" s="1">
         <v>7</v>
       </c>
       <c r="I72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J72" s="1">
         <v>5</v>
@@ -4395,19 +4405,19 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D73" s="1">
         <v>2070000</v>
       </c>
       <c r="F73" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G73" s="1">
         <v>7</v>
       </c>
       <c r="I73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J73" s="1">
         <v>1</v>
@@ -4433,19 +4443,19 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D74" s="1">
         <v>2070000</v>
       </c>
       <c r="F74" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G74" s="1">
         <v>7</v>
       </c>
       <c r="I74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J74" s="1">
         <v>2</v>
@@ -4471,19 +4481,19 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D75" s="1">
         <v>2070000</v>
       </c>
       <c r="F75" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G75" s="1">
         <v>7</v>
       </c>
       <c r="I75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J75" s="1">
         <v>3</v>
@@ -4509,19 +4519,19 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D76" s="1">
         <v>2070000</v>
       </c>
       <c r="F76" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G76" s="1">
         <v>7</v>
       </c>
       <c r="I76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J76" s="1">
         <v>4</v>
@@ -4547,19 +4557,19 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D77" s="1">
         <v>2070000</v>
       </c>
       <c r="F77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G77" s="1">
         <v>7</v>
       </c>
       <c r="I77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
@@ -4585,19 +4595,19 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D78" s="1">
         <v>2070000</v>
       </c>
       <c r="F78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G78" s="1">
         <v>7</v>
       </c>
       <c r="I78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J78" s="1">
         <v>2</v>
@@ -4623,19 +4633,19 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D79" s="1">
         <v>2070000</v>
       </c>
       <c r="F79" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G79" s="1">
         <v>7</v>
       </c>
       <c r="I79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J79" s="1">
         <v>3</v>
@@ -4661,19 +4671,19 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D80" s="1">
         <v>2070000</v>
       </c>
       <c r="F80" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G80" s="1">
         <v>7</v>
       </c>
       <c r="I80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J80" s="1">
         <v>4</v>
@@ -4699,19 +4709,19 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D81" s="1">
         <v>2070000</v>
       </c>
       <c r="F81" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G81" s="1">
         <v>7</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J81" s="1">
         <v>1</v>
@@ -4737,19 +4747,19 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D82" s="1">
         <v>2070000</v>
       </c>
       <c r="F82" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G82" s="1">
         <v>7</v>
       </c>
       <c r="I82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J82" s="1">
         <v>2</v>
@@ -4775,19 +4785,19 @@
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D83" s="1">
         <v>2040401</v>
       </c>
       <c r="F83" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G83" s="1">
         <v>7</v>
       </c>
       <c r="I83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J83" s="1">
         <v>3</v>
@@ -4813,19 +4823,19 @@
         <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D84" s="1">
         <v>2040401</v>
       </c>
       <c r="F84" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G84" s="1">
         <v>7</v>
       </c>
       <c r="I84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J84" s="1">
         <v>4</v>
@@ -4851,7 +4861,7 @@
         <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D85" s="1">
         <v>2040401</v>
@@ -4860,13 +4870,13 @@
         <v>12052</v>
       </c>
       <c r="F85" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G85" s="1">
         <v>7</v>
       </c>
       <c r="I85" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J85" s="1">
         <v>5</v>
@@ -4892,7 +4902,7 @@
         <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D86" s="1">
         <v>3102003</v>
@@ -4901,13 +4911,13 @@
         <v>12052</v>
       </c>
       <c r="F86" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G86" s="1">
         <v>201</v>
       </c>
       <c r="I86" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J86" s="1">
         <v>5</v>
@@ -4924,19 +4934,19 @@
         <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D87" s="1">
         <v>3102001</v>
       </c>
       <c r="F87" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G87" s="1">
         <v>201</v>
       </c>
       <c r="I87" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J87" s="1">
         <v>4</v>
@@ -4953,7 +4963,7 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D88" s="1">
         <v>3101006</v>
@@ -4962,13 +4972,13 @@
         <v>12052</v>
       </c>
       <c r="F88" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G88" s="1">
         <v>201</v>
       </c>
       <c r="I88" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J88" s="1">
         <v>5</v>
@@ -4985,19 +4995,19 @@
         <v>84</v>
       </c>
       <c r="B89" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D89" s="1">
         <v>3102002</v>
       </c>
       <c r="F89" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G89" s="1">
         <v>201</v>
       </c>
       <c r="I89" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J89" s="1">
         <v>4</v>
@@ -5014,7 +5024,7 @@
         <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D90" s="1">
         <v>3101001</v>
@@ -5023,13 +5033,13 @@
         <v>12052</v>
       </c>
       <c r="F90" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G90" s="1">
         <v>201</v>
       </c>
       <c r="I90" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J90" s="1">
         <v>5</v>
@@ -5046,7 +5056,7 @@
         <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D91" s="1">
         <v>3101002</v>
@@ -5055,13 +5065,13 @@
         <v>12052</v>
       </c>
       <c r="F91" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G91" s="1">
         <v>201</v>
       </c>
       <c r="I91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J91" s="1">
         <v>5</v>
@@ -5078,7 +5088,7 @@
         <v>87</v>
       </c>
       <c r="B92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D92" s="1">
         <v>3101004</v>
@@ -5087,13 +5097,13 @@
         <v>12052</v>
       </c>
       <c r="F92" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G92" s="1">
         <v>201</v>
       </c>
       <c r="I92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J92" s="1">
         <v>5</v>
@@ -5110,19 +5120,19 @@
         <v>88</v>
       </c>
       <c r="B93" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D93" s="1">
         <v>3101010</v>
       </c>
       <c r="F93" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G93" s="1">
         <v>201</v>
       </c>
       <c r="I93" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J93" s="1">
         <v>4</v>
@@ -5139,7 +5149,7 @@
         <v>89</v>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D94" s="1">
         <v>3101011</v>
@@ -5148,13 +5158,13 @@
         <v>12052</v>
       </c>
       <c r="F94" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G94" s="1">
         <v>201</v>
       </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J94" s="1">
         <v>5</v>
@@ -5171,7 +5181,7 @@
         <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D95" s="1">
         <v>3101008</v>
@@ -5180,13 +5190,13 @@
         <v>12052</v>
       </c>
       <c r="F95" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G95" s="1">
         <v>201</v>
       </c>
       <c r="I95" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J95" s="1">
         <v>5</v>
@@ -5203,7 +5213,7 @@
         <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D96" s="1">
         <v>3101007</v>
@@ -5212,13 +5222,13 @@
         <v>12052</v>
       </c>
       <c r="F96" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G96" s="1">
         <v>201</v>
       </c>
       <c r="I96" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J96" s="1">
         <v>5</v>
@@ -5235,7 +5245,7 @@
         <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D97" s="1">
         <v>3101018</v>
@@ -5244,13 +5254,13 @@
         <v>12052</v>
       </c>
       <c r="F97" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G97" s="1">
         <v>201</v>
       </c>
       <c r="I97" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J97" s="1">
         <v>5</v>
@@ -5267,19 +5277,19 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D98" s="1">
         <v>3101019</v>
       </c>
       <c r="F98" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G98" s="1">
         <v>201</v>
       </c>
       <c r="I98" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J98" s="1">
         <v>4</v>
@@ -5296,7 +5306,7 @@
         <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D99" s="1">
         <v>3101016</v>
@@ -5305,13 +5315,13 @@
         <v>12052</v>
       </c>
       <c r="F99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G99" s="1">
         <v>201</v>
       </c>
       <c r="I99" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J99" s="1">
         <v>5</v>
@@ -5328,7 +5338,7 @@
         <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D100" s="1">
         <v>3101015</v>
@@ -5337,13 +5347,13 @@
         <v>12052</v>
       </c>
       <c r="F100" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G100" s="1">
         <v>201</v>
       </c>
       <c r="I100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J100" s="1">
         <v>5</v>
@@ -5360,7 +5370,7 @@
         <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D101" s="1">
         <v>3101014</v>
@@ -5369,13 +5379,13 @@
         <v>12052</v>
       </c>
       <c r="F101" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G101" s="1">
         <v>201</v>
       </c>
       <c r="I101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J101" s="1">
         <v>5</v>
@@ -5392,7 +5402,7 @@
         <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D102" s="1">
         <v>3101017</v>
@@ -5401,13 +5411,13 @@
         <v>12052</v>
       </c>
       <c r="F102" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G102" s="1">
         <v>201</v>
       </c>
       <c r="I102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J102" s="1">
         <v>5</v>
@@ -5424,7 +5434,7 @@
         <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D103" s="1">
         <v>3101012</v>
@@ -5433,13 +5443,13 @@
         <v>12052</v>
       </c>
       <c r="F103" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G103" s="1">
         <v>201</v>
       </c>
       <c r="I103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J103" s="1">
         <v>5</v>
@@ -5456,7 +5466,7 @@
         <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D104" s="1">
         <v>3101003</v>
@@ -5465,13 +5475,13 @@
         <v>12052</v>
       </c>
       <c r="F104" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G104" s="1">
         <v>201</v>
       </c>
       <c r="I104" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J104" s="1">
         <v>5</v>
@@ -5488,7 +5498,7 @@
         <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D105" s="1">
         <v>3101009</v>
@@ -5497,13 +5507,13 @@
         <v>12052</v>
       </c>
       <c r="F105" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G105" s="1">
         <v>201</v>
       </c>
       <c r="I105" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J105" s="1">
         <v>5</v>
@@ -5520,19 +5530,19 @@
         <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D106" s="1">
         <v>3101031</v>
       </c>
       <c r="F106" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G106" s="1">
         <v>201</v>
       </c>
       <c r="I106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J106" s="1">
         <v>4</v>
@@ -5549,7 +5559,7 @@
         <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D107" s="1">
         <v>3101021</v>
@@ -5558,13 +5568,13 @@
         <v>12052</v>
       </c>
       <c r="F107" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G107" s="1">
         <v>201</v>
       </c>
       <c r="I107" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J107" s="1">
         <v>5</v>
@@ -5581,19 +5591,19 @@
         <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D108" s="1">
         <v>3101013</v>
       </c>
       <c r="F108" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G108" s="1">
         <v>201</v>
       </c>
       <c r="I108" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J108" s="1">
         <v>4</v>
@@ -5610,7 +5620,7 @@
         <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D109" s="1">
         <v>3101023</v>
@@ -5619,13 +5629,13 @@
         <v>12052</v>
       </c>
       <c r="F109" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G109" s="1">
         <v>201</v>
       </c>
       <c r="I109" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J109" s="1">
         <v>5</v>
@@ -5642,7 +5652,7 @@
         <v>105</v>
       </c>
       <c r="B110" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D110" s="1">
         <v>3101027</v>
@@ -5651,13 +5661,13 @@
         <v>12052</v>
       </c>
       <c r="F110" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G110" s="1">
         <v>201</v>
       </c>
       <c r="I110" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J110" s="1">
         <v>5</v>
@@ -5674,7 +5684,7 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D111" s="1">
         <v>3101033</v>
@@ -5683,13 +5693,13 @@
         <v>12052</v>
       </c>
       <c r="F111" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G111" s="1">
         <v>201</v>
       </c>
       <c r="I111" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J111" s="1">
         <v>5</v>
@@ -5706,7 +5716,7 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D112" s="1">
         <v>3101029</v>
@@ -5715,13 +5725,13 @@
         <v>12052</v>
       </c>
       <c r="F112" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G112" s="1">
         <v>201</v>
       </c>
       <c r="I112" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J112" s="1">
         <v>5</v>
@@ -5738,7 +5748,7 @@
         <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D113" s="1">
         <v>3101030</v>
@@ -5747,13 +5757,13 @@
         <v>12052</v>
       </c>
       <c r="F113" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G113" s="1">
         <v>201</v>
       </c>
       <c r="I113" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J113" s="1">
         <v>5</v>
@@ -5770,7 +5780,7 @@
         <v>109</v>
       </c>
       <c r="B114" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D114" s="1">
         <v>3101020</v>
@@ -5779,13 +5789,13 @@
         <v>12052</v>
       </c>
       <c r="F114" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G114" s="1">
         <v>201</v>
       </c>
       <c r="I114" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J114" s="1">
         <v>5</v>
@@ -5802,7 +5812,7 @@
         <v>110</v>
       </c>
       <c r="B115" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D115" s="1">
         <v>3101022</v>
@@ -5811,13 +5821,13 @@
         <v>12052</v>
       </c>
       <c r="F115" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G115" s="1">
         <v>201</v>
       </c>
       <c r="I115" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J115" s="1">
         <v>5</v>
@@ -5834,7 +5844,7 @@
         <v>111</v>
       </c>
       <c r="B116" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D116" s="1">
         <v>3101022</v>
@@ -5843,13 +5853,13 @@
         <v>12052</v>
       </c>
       <c r="F116" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G116" s="1">
         <v>201</v>
       </c>
       <c r="I116" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J116" s="1">
         <v>5</v>
@@ -5866,19 +5876,19 @@
         <v>112</v>
       </c>
       <c r="B117" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D117" s="1">
         <v>3101047</v>
       </c>
       <c r="F117" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G117" s="1">
         <v>201</v>
       </c>
       <c r="I117" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J117" s="1">
         <v>4</v>
@@ -5895,19 +5905,19 @@
         <v>113</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D118" s="1">
         <v>3101025</v>
       </c>
       <c r="F118" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G118" s="1">
         <v>201</v>
       </c>
       <c r="I118" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J118" s="1">
         <v>4</v>
@@ -5924,19 +5934,19 @@
         <v>114</v>
       </c>
       <c r="B119" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D119" s="1">
         <v>3101050</v>
       </c>
       <c r="F119" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G119" s="1">
         <v>201</v>
       </c>
       <c r="I119" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J119" s="1">
         <v>4</v>
@@ -5953,7 +5963,7 @@
         <v>115</v>
       </c>
       <c r="B120" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D120" s="1">
         <v>3101028</v>
@@ -5962,13 +5972,13 @@
         <v>12052</v>
       </c>
       <c r="F120" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G120" s="1">
         <v>201</v>
       </c>
       <c r="I120" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J120" s="1">
         <v>5</v>
@@ -5985,7 +5995,7 @@
         <v>116</v>
       </c>
       <c r="B121" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D121" s="1">
         <v>3101068</v>
@@ -5994,13 +6004,13 @@
         <v>12052</v>
       </c>
       <c r="F121" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G121" s="1">
         <v>201</v>
       </c>
       <c r="I121" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J121" s="1">
         <v>5</v>
@@ -6017,19 +6027,19 @@
         <v>117</v>
       </c>
       <c r="B122" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D122" s="1">
         <v>3101049</v>
       </c>
       <c r="F122" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G122" s="1">
         <v>201</v>
       </c>
       <c r="I122" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J122" s="1">
         <v>4</v>
@@ -6046,19 +6056,19 @@
         <v>118</v>
       </c>
       <c r="B123" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D123" s="1">
         <v>3101005</v>
       </c>
       <c r="F123" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G123" s="1">
         <v>201</v>
       </c>
       <c r="I123" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J123" s="1">
         <v>4</v>
@@ -6075,7 +6085,7 @@
         <v>119</v>
       </c>
       <c r="B124" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D124" s="1">
         <v>3101035</v>
@@ -6084,13 +6094,13 @@
         <v>12052</v>
       </c>
       <c r="F124" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G124" s="1">
         <v>201</v>
       </c>
       <c r="I124" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J124" s="1">
         <v>5</v>
@@ -6107,7 +6117,7 @@
         <v>120</v>
       </c>
       <c r="B125" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D125" s="1">
         <v>3101039</v>
@@ -6116,13 +6126,13 @@
         <v>12052</v>
       </c>
       <c r="F125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G125" s="1">
         <v>201</v>
       </c>
       <c r="I125" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J125" s="1">
         <v>5</v>
@@ -6139,19 +6149,19 @@
         <v>121</v>
       </c>
       <c r="B126" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D126" s="1">
         <v>3101048</v>
       </c>
       <c r="F126" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G126" s="1">
         <v>201</v>
       </c>
       <c r="I126" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J126" s="1">
         <v>4</v>
@@ -6168,7 +6178,7 @@
         <v>122</v>
       </c>
       <c r="B127" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D127" s="1">
         <v>3101040</v>
@@ -6177,13 +6187,13 @@
         <v>12052</v>
       </c>
       <c r="F127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G127" s="1">
         <v>201</v>
       </c>
       <c r="I127" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J127" s="1">
         <v>5</v>
@@ -6200,7 +6210,7 @@
         <v>123</v>
       </c>
       <c r="B128" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D128" s="1">
         <v>3101073</v>
@@ -6209,13 +6219,13 @@
         <v>12052</v>
       </c>
       <c r="F128" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G128" s="1">
         <v>201</v>
       </c>
       <c r="I128" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J128" s="1">
         <v>5</v>
@@ -6232,7 +6242,7 @@
         <v>124</v>
       </c>
       <c r="B129" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D129" s="1">
         <v>3101032</v>
@@ -6241,13 +6251,13 @@
         <v>12052</v>
       </c>
       <c r="F129" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G129" s="1">
         <v>201</v>
       </c>
       <c r="I129" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J129" s="1">
         <v>5</v>
@@ -6264,7 +6274,7 @@
         <v>125</v>
       </c>
       <c r="B130" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D130" s="1">
         <v>3101076</v>
@@ -6273,13 +6283,13 @@
         <v>12052</v>
       </c>
       <c r="F130" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G130" s="1">
         <v>201</v>
       </c>
       <c r="I130" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J130" s="1">
         <v>5</v>
@@ -6296,7 +6306,7 @@
         <v>126</v>
       </c>
       <c r="B131" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D131" s="1">
         <v>3101075</v>
@@ -6305,13 +6315,13 @@
         <v>12052</v>
       </c>
       <c r="F131" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G131" s="1">
         <v>201</v>
       </c>
       <c r="I131" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J131" s="1">
         <v>5</v>
@@ -6328,7 +6338,7 @@
         <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D132" s="1">
         <v>3101071</v>
@@ -6337,13 +6347,13 @@
         <v>12052</v>
       </c>
       <c r="F132" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G132" s="1">
         <v>201</v>
       </c>
       <c r="I132" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J132" s="1">
         <v>5</v>
@@ -6360,7 +6370,7 @@
         <v>128</v>
       </c>
       <c r="B133" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D133" s="1">
         <v>3101066</v>
@@ -6369,13 +6379,13 @@
         <v>12052</v>
       </c>
       <c r="F133" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G133" s="1">
         <v>201</v>
       </c>
       <c r="I133" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J133" s="1">
         <v>5</v>
@@ -6392,7 +6402,7 @@
         <v>129</v>
       </c>
       <c r="B134" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D134" s="1">
         <v>3101067</v>
@@ -6401,13 +6411,13 @@
         <v>12052</v>
       </c>
       <c r="F134" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G134" s="1">
         <v>201</v>
       </c>
       <c r="I134" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J134" s="1">
         <v>5</v>
@@ -6424,7 +6434,7 @@
         <v>130</v>
       </c>
       <c r="B135" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D135" s="1">
         <v>3101069</v>
@@ -6433,13 +6443,13 @@
         <v>12052</v>
       </c>
       <c r="F135" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G135" s="1">
         <v>201</v>
       </c>
       <c r="I135" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J135" s="1">
         <v>5</v>
@@ -6456,7 +6466,7 @@
         <v>131</v>
       </c>
       <c r="B136" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D136" s="1">
         <v>3101072</v>
@@ -6465,13 +6475,13 @@
         <v>12052</v>
       </c>
       <c r="F136" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G136" s="1">
         <v>201</v>
       </c>
       <c r="I136" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J136" s="1">
         <v>5</v>
@@ -6488,7 +6498,7 @@
         <v>132</v>
       </c>
       <c r="B137" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D137" s="1">
         <v>3101074</v>
@@ -6497,13 +6507,13 @@
         <v>12052</v>
       </c>
       <c r="F137" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G137" s="1">
         <v>201</v>
       </c>
       <c r="I137" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J137" s="1">
         <v>5</v>
@@ -6520,7 +6530,7 @@
         <v>133</v>
       </c>
       <c r="B138" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D138" s="1">
         <v>3101077</v>
@@ -6529,13 +6539,13 @@
         <v>12052</v>
       </c>
       <c r="F138" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G138" s="1">
         <v>201</v>
       </c>
       <c r="I138" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J138" s="1">
         <v>5</v>
@@ -6552,7 +6562,7 @@
         <v>134</v>
       </c>
       <c r="B139" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D139" s="1">
         <v>3101070</v>
@@ -6561,13 +6571,13 @@
         <v>12052</v>
       </c>
       <c r="F139" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G139" s="1">
         <v>201</v>
       </c>
       <c r="I139" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J139" s="1">
         <v>5</v>
@@ -6584,7 +6594,7 @@
         <v>135</v>
       </c>
       <c r="B140" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D140" s="1">
         <v>3101038</v>
@@ -6593,13 +6603,13 @@
         <v>12052</v>
       </c>
       <c r="F140" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G140" s="1">
         <v>201</v>
       </c>
       <c r="I140" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J140" s="1">
         <v>5</v>
@@ -6616,7 +6626,7 @@
         <v>136</v>
       </c>
       <c r="B141" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D141" s="1">
         <v>3101026</v>
@@ -6625,13 +6635,13 @@
         <v>12052</v>
       </c>
       <c r="F141" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G141" s="1">
         <v>201</v>
       </c>
       <c r="I141" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J141" s="1">
         <v>5</v>
@@ -6648,7 +6658,7 @@
         <v>137</v>
       </c>
       <c r="B142" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D142" s="1">
         <v>3101024</v>
@@ -6657,13 +6667,13 @@
         <v>12052</v>
       </c>
       <c r="F142" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G142" s="1">
         <v>201</v>
       </c>
       <c r="I142" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J142" s="1">
         <v>5</v>
@@ -6680,19 +6690,19 @@
         <v>138</v>
       </c>
       <c r="B143" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D143" s="1">
         <v>3101037</v>
       </c>
       <c r="F143" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G143" s="1">
         <v>201</v>
       </c>
       <c r="I143" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J143" s="1">
         <v>4</v>
@@ -6709,7 +6719,7 @@
         <v>139</v>
       </c>
       <c r="B144" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D144" s="1">
         <v>3101043</v>
@@ -6718,13 +6728,13 @@
         <v>12052</v>
       </c>
       <c r="F144" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G144" s="1">
         <v>201</v>
       </c>
       <c r="I144" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J144" s="1">
         <v>5</v>
@@ -6741,19 +6751,19 @@
         <v>140</v>
       </c>
       <c r="B145" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D145" s="1">
         <v>3101043</v>
       </c>
       <c r="F145" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G145" s="1">
         <v>201</v>
       </c>
       <c r="I145" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J145" s="1">
         <v>4</v>
@@ -6770,19 +6780,19 @@
         <v>141</v>
       </c>
       <c r="B146" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D146" s="1">
         <v>3101058</v>
       </c>
       <c r="F146" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G146" s="1">
         <v>201</v>
       </c>
       <c r="I146" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J146" s="1">
         <v>1</v>
@@ -6799,19 +6809,19 @@
         <v>142</v>
       </c>
       <c r="B147" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D147" s="1">
         <v>3101063</v>
       </c>
       <c r="F147" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G147" s="1">
         <v>201</v>
       </c>
       <c r="I147" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J147" s="1">
         <v>1</v>
@@ -6828,19 +6838,19 @@
         <v>143</v>
       </c>
       <c r="B148" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D148" s="1">
         <v>3101060</v>
       </c>
       <c r="F148" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G148" s="1">
         <v>201</v>
       </c>
       <c r="I148" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J148" s="1">
         <v>1</v>
@@ -6857,19 +6867,19 @@
         <v>144</v>
       </c>
       <c r="B149" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D149" s="1">
         <v>3101054</v>
       </c>
       <c r="F149" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G149" s="1">
         <v>201</v>
       </c>
       <c r="I149" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J149" s="1">
         <v>1</v>
@@ -6886,19 +6896,19 @@
         <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D150" s="1">
         <v>3101059</v>
       </c>
       <c r="F150" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G150" s="1">
         <v>201</v>
       </c>
       <c r="I150" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J150" s="1">
         <v>2</v>
@@ -6915,19 +6925,19 @@
         <v>146</v>
       </c>
       <c r="B151" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D151" s="1">
         <v>3101064</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G151" s="1">
         <v>201</v>
       </c>
       <c r="I151" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J151" s="1">
         <v>2</v>
@@ -6944,19 +6954,19 @@
         <v>147</v>
       </c>
       <c r="B152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D152" s="1">
         <v>3101062</v>
       </c>
       <c r="F152" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G152" s="1">
         <v>201</v>
       </c>
       <c r="I152" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J152" s="1">
         <v>2</v>
@@ -6973,19 +6983,19 @@
         <v>148</v>
       </c>
       <c r="B153" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D153" s="1">
         <v>3101061</v>
       </c>
       <c r="F153" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G153" s="1">
         <v>201</v>
       </c>
       <c r="I153" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J153" s="1">
         <v>2</v>
@@ -7002,19 +7012,19 @@
         <v>149</v>
       </c>
       <c r="B154" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D154" s="1">
         <v>3101044</v>
       </c>
       <c r="F154" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G154" s="1">
         <v>201</v>
       </c>
       <c r="I154" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J154" s="1">
         <v>3</v>
@@ -7031,19 +7041,19 @@
         <v>150</v>
       </c>
       <c r="B155" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D155" s="1">
         <v>3101044</v>
       </c>
       <c r="F155" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G155" s="1">
         <v>201</v>
       </c>
       <c r="I155" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J155" s="1">
         <v>3</v>
@@ -7060,19 +7070,19 @@
         <v>151</v>
       </c>
       <c r="B156" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D156" s="1">
         <v>3101046</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G156" s="1">
         <v>201</v>
       </c>
       <c r="I156" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J156" s="1">
         <v>3</v>
@@ -7089,19 +7099,19 @@
         <v>152</v>
       </c>
       <c r="B157" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D157" s="1">
         <v>3101043</v>
       </c>
       <c r="F157" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G157" s="1">
         <v>201</v>
       </c>
       <c r="I157" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J157" s="1">
         <v>3</v>
@@ -7118,19 +7128,19 @@
         <v>153</v>
       </c>
       <c r="B158" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D158" s="1">
         <v>3101045</v>
       </c>
       <c r="F158" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G158" s="1">
         <v>201</v>
       </c>
       <c r="I158" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J158" s="1">
         <v>3</v>
@@ -7147,19 +7157,19 @@
         <v>154</v>
       </c>
       <c r="B159" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D159" s="1">
         <v>3101053</v>
       </c>
       <c r="F159" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G159" s="1">
         <v>201</v>
       </c>
       <c r="I159" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J159" s="1">
         <v>3</v>
@@ -7176,19 +7186,19 @@
         <v>155</v>
       </c>
       <c r="B160" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D160" s="1">
         <v>3101046</v>
       </c>
       <c r="F160" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G160" s="1">
         <v>201</v>
       </c>
       <c r="I160" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J160" s="1">
         <v>3</v>
@@ -7205,19 +7215,19 @@
         <v>156</v>
       </c>
       <c r="B161" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D161" s="1">
         <v>3101044</v>
       </c>
       <c r="F161" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G161" s="1">
         <v>201</v>
       </c>
       <c r="I161" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J161" s="1">
         <v>3</v>
@@ -7234,19 +7244,19 @@
         <v>157</v>
       </c>
       <c r="B162" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D162" s="1">
         <v>3101301</v>
       </c>
       <c r="F162" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G162" s="1">
         <v>201</v>
       </c>
       <c r="I162" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J162" s="1">
         <v>3</v>
@@ -7263,19 +7273,19 @@
         <v>158</v>
       </c>
       <c r="B163" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D163" s="1">
         <v>3101309</v>
       </c>
       <c r="F163" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G163" s="1">
         <v>201</v>
       </c>
       <c r="I163" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J163" s="1">
         <v>3</v>
@@ -7292,19 +7302,19 @@
         <v>159</v>
       </c>
       <c r="B164" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D164" s="1">
         <v>3101306</v>
       </c>
       <c r="F164" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G164" s="1">
         <v>201</v>
       </c>
       <c r="I164" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J164" s="1">
         <v>3</v>
@@ -7321,19 +7331,19 @@
         <v>160</v>
       </c>
       <c r="B165" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D165" s="1">
         <v>3101307</v>
       </c>
       <c r="F165" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G165" s="1">
         <v>201</v>
       </c>
       <c r="I165" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J165" s="1">
         <v>3</v>
@@ -7350,19 +7360,19 @@
         <v>161</v>
       </c>
       <c r="B166" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D166" s="1">
         <v>3101304</v>
       </c>
       <c r="F166" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G166" s="1">
         <v>201</v>
       </c>
       <c r="I166" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J166" s="1">
         <v>3</v>
@@ -7379,19 +7389,19 @@
         <v>162</v>
       </c>
       <c r="B167" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D167" s="1">
         <v>3101305</v>
       </c>
       <c r="F167" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G167" s="1">
         <v>201</v>
       </c>
       <c r="I167" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J167" s="1">
         <v>3</v>
@@ -7408,19 +7418,19 @@
         <v>163</v>
       </c>
       <c r="B168" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D168" s="1">
         <v>3101302</v>
       </c>
       <c r="F168" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G168" s="1">
         <v>201</v>
       </c>
       <c r="I168" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J168" s="1">
         <v>3</v>
@@ -7437,19 +7447,19 @@
         <v>164</v>
       </c>
       <c r="B169" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D169" s="1">
         <v>3101308</v>
       </c>
       <c r="F169" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G169" s="1">
         <v>201</v>
       </c>
       <c r="I169" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J169" s="1">
         <v>3</v>
@@ -7466,19 +7476,19 @@
         <v>165</v>
       </c>
       <c r="B170" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D170" s="1">
         <v>3101311</v>
       </c>
       <c r="F170" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G170" s="1">
         <v>201</v>
       </c>
       <c r="I170" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J170" s="1">
         <v>4</v>
@@ -7495,19 +7505,19 @@
         <v>166</v>
       </c>
       <c r="B171" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D171" s="1">
         <v>3101319</v>
       </c>
       <c r="F171" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G171" s="1">
         <v>201</v>
       </c>
       <c r="I171" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J171" s="1">
         <v>4</v>
@@ -7524,19 +7534,19 @@
         <v>167</v>
       </c>
       <c r="B172" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D172" s="1">
         <v>3101316</v>
       </c>
       <c r="F172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G172" s="1">
         <v>201</v>
       </c>
       <c r="I172" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J172" s="1">
         <v>4</v>
@@ -7553,19 +7563,19 @@
         <v>168</v>
       </c>
       <c r="B173" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D173" s="1">
         <v>3101317</v>
       </c>
       <c r="F173" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G173" s="1">
         <v>201</v>
       </c>
       <c r="I173" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J173" s="1">
         <v>4</v>
@@ -7582,19 +7592,19 @@
         <v>169</v>
       </c>
       <c r="B174" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D174" s="1">
         <v>3101314</v>
       </c>
       <c r="F174" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G174" s="1">
         <v>201</v>
       </c>
       <c r="I174" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J174" s="1">
         <v>4</v>
@@ -7611,19 +7621,19 @@
         <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D175" s="1">
         <v>3101315</v>
       </c>
       <c r="F175" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G175" s="1">
         <v>201</v>
       </c>
       <c r="I175" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J175" s="1">
         <v>4</v>
@@ -7640,19 +7650,19 @@
         <v>171</v>
       </c>
       <c r="B176" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D176" s="1">
         <v>3101315</v>
       </c>
       <c r="F176" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G176" s="1">
         <v>201</v>
       </c>
       <c r="I176" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J176" s="1">
         <v>4</v>
@@ -7669,19 +7679,19 @@
         <v>172</v>
       </c>
       <c r="B177" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D177" s="1">
         <v>3101315</v>
       </c>
       <c r="F177" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G177" s="1">
         <v>201</v>
       </c>
       <c r="I177" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J177" s="1">
         <v>4</v>
@@ -7698,19 +7708,19 @@
         <v>173</v>
       </c>
       <c r="B178" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D178" s="1">
         <v>3101315</v>
       </c>
       <c r="F178" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G178" s="1">
         <v>201</v>
       </c>
       <c r="I178" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J178" s="1">
         <v>4</v>
@@ -7727,19 +7737,19 @@
         <v>174</v>
       </c>
       <c r="B179" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D179" s="1">
         <v>3101315</v>
       </c>
       <c r="F179" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G179" s="1">
         <v>201</v>
       </c>
       <c r="I179" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J179" s="1">
         <v>4</v>
@@ -7756,19 +7766,19 @@
         <v>175</v>
       </c>
       <c r="B180" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D180" s="1">
         <v>3101322</v>
       </c>
       <c r="F180" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G180" s="1">
         <v>201</v>
       </c>
       <c r="I180" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J180" s="1">
         <v>4</v>
@@ -7785,19 +7795,19 @@
         <v>176</v>
       </c>
       <c r="B181" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D181" s="1">
         <v>3101318</v>
       </c>
       <c r="F181" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G181" s="1">
         <v>201</v>
       </c>
       <c r="I181" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J181" s="1">
         <v>4</v>
@@ -7814,7 +7824,7 @@
         <v>177</v>
       </c>
       <c r="B182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D182" s="1">
         <v>3101321</v>
@@ -7823,13 +7833,13 @@
         <v>12052</v>
       </c>
       <c r="F182" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G182" s="1">
         <v>201</v>
       </c>
       <c r="I182" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J182" s="1">
         <v>5</v>
@@ -7846,7 +7856,7 @@
         <v>178</v>
       </c>
       <c r="B183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D183" s="1">
         <v>3101329</v>
@@ -7855,13 +7865,13 @@
         <v>12052</v>
       </c>
       <c r="F183" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G183" s="1">
         <v>201</v>
       </c>
       <c r="I183" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J183" s="1">
         <v>5</v>
@@ -7878,7 +7888,7 @@
         <v>179</v>
       </c>
       <c r="B184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D184" s="1">
         <v>3101326</v>
@@ -7887,13 +7897,13 @@
         <v>12052</v>
       </c>
       <c r="F184" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G184" s="1">
         <v>201</v>
       </c>
       <c r="I184" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J184" s="1">
         <v>5</v>
@@ -7910,7 +7920,7 @@
         <v>180</v>
       </c>
       <c r="B185" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D185" s="1">
         <v>3101327</v>
@@ -7919,13 +7929,13 @@
         <v>12052</v>
       </c>
       <c r="F185" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G185" s="1">
         <v>201</v>
       </c>
       <c r="I185" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J185" s="1">
         <v>5</v>
@@ -7942,7 +7952,7 @@
         <v>181</v>
       </c>
       <c r="B186" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D186" s="1">
         <v>3101324</v>
@@ -7951,13 +7961,13 @@
         <v>12052</v>
       </c>
       <c r="F186" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G186" s="1">
         <v>201</v>
       </c>
       <c r="I186" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J186" s="1">
         <v>5</v>
@@ -7974,7 +7984,7 @@
         <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D187" s="1">
         <v>3101325</v>
@@ -7983,13 +7993,13 @@
         <v>12052</v>
       </c>
       <c r="F187" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G187" s="1">
         <v>201</v>
       </c>
       <c r="I187" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J187" s="1">
         <v>5</v>
@@ -8006,7 +8016,7 @@
         <v>183</v>
       </c>
       <c r="B188" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D188" s="1">
         <v>3101322</v>
@@ -8015,13 +8025,13 @@
         <v>12052</v>
       </c>
       <c r="F188" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G188" s="1">
         <v>201</v>
       </c>
       <c r="I188" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J188" s="1">
         <v>5</v>
@@ -8038,7 +8048,7 @@
         <v>184</v>
       </c>
       <c r="B189" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D189" s="1">
         <v>3101328</v>
@@ -8047,13 +8057,13 @@
         <v>12052</v>
       </c>
       <c r="F189" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G189" s="1">
         <v>201</v>
       </c>
       <c r="I189" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J189" s="1">
         <v>5</v>
@@ -8070,7 +8080,7 @@
         <v>185</v>
       </c>
       <c r="B190" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D190" s="1">
         <v>3101328</v>
@@ -8079,13 +8089,13 @@
         <v>12052</v>
       </c>
       <c r="F190" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G190" s="1">
         <v>201</v>
       </c>
       <c r="I190" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J190" s="1">
         <v>5</v>
@@ -8102,7 +8112,7 @@
         <v>186</v>
       </c>
       <c r="B191" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D191" s="1">
         <v>3101328</v>
@@ -8111,13 +8121,13 @@
         <v>12052</v>
       </c>
       <c r="F191" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G191" s="1">
         <v>201</v>
       </c>
       <c r="I191" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J191" s="1">
         <v>5</v>
@@ -8134,7 +8144,7 @@
         <v>187</v>
       </c>
       <c r="B192" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D192" s="1">
         <v>3101328</v>
@@ -8143,13 +8153,13 @@
         <v>12052</v>
       </c>
       <c r="F192" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G192" s="1">
         <v>201</v>
       </c>
       <c r="I192" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J192" s="1">
         <v>5</v>
@@ -8166,7 +8176,7 @@
         <v>188</v>
       </c>
       <c r="B193" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D193" s="1">
         <v>3101328</v>
@@ -8175,13 +8185,13 @@
         <v>12052</v>
       </c>
       <c r="F193" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G193" s="1">
         <v>201</v>
       </c>
       <c r="I193" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J193" s="1">
         <v>5</v>
@@ -8198,19 +8208,19 @@
         <v>189</v>
       </c>
       <c r="B194" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G194" s="1">
         <v>201</v>
       </c>
       <c r="I194" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J194" s="1">
         <v>1</v>
@@ -8227,19 +8237,19 @@
         <v>190</v>
       </c>
       <c r="B195" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D195" s="1">
         <v>3101002</v>
       </c>
       <c r="F195" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G195" s="1">
         <v>201</v>
       </c>
       <c r="I195" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J195" s="1">
         <v>1</v>
@@ -8256,19 +8266,19 @@
         <v>191</v>
       </c>
       <c r="B196" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D196" s="1">
         <v>3101002</v>
       </c>
       <c r="F196" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G196" s="1">
         <v>201</v>
       </c>
       <c r="I196" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J196" s="1">
         <v>1</v>
@@ -8285,19 +8295,19 @@
         <v>192</v>
       </c>
       <c r="B197" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D197" s="1">
         <v>3101002</v>
       </c>
       <c r="F197" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G197" s="1">
         <v>201</v>
       </c>
       <c r="I197" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J197" s="1">
         <v>1</v>
@@ -8314,19 +8324,19 @@
         <v>193</v>
       </c>
       <c r="B198" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D198" s="1">
         <v>3101002</v>
       </c>
       <c r="F198" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G198" s="1">
         <v>201</v>
       </c>
       <c r="I198" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J198" s="1">
         <v>1</v>
@@ -8343,19 +8353,19 @@
         <v>194</v>
       </c>
       <c r="B199" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D199" s="1">
         <v>3101002</v>
       </c>
       <c r="F199" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G199" s="1">
         <v>201</v>
       </c>
       <c r="I199" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J199" s="1">
         <v>1</v>
@@ -8372,19 +8382,19 @@
         <v>195</v>
       </c>
       <c r="B200" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D200" s="1">
         <v>3101002</v>
       </c>
       <c r="F200" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G200" s="1">
         <v>201</v>
       </c>
       <c r="I200" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J200" s="1">
         <v>1</v>
@@ -8401,19 +8411,19 @@
         <v>196</v>
       </c>
       <c r="B201" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D201" s="1">
         <v>3101002</v>
       </c>
       <c r="F201" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G201" s="1">
         <v>201</v>
       </c>
       <c r="I201" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J201" s="1">
         <v>1</v>
@@ -8430,19 +8440,19 @@
         <v>197</v>
       </c>
       <c r="B202" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D202" s="1">
         <v>3101002</v>
       </c>
       <c r="F202" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G202" s="1">
         <v>201</v>
       </c>
       <c r="I202" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J202" s="1">
         <v>1</v>
@@ -8459,19 +8469,19 @@
         <v>198</v>
       </c>
       <c r="B203" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D203" s="1">
         <v>3101002</v>
       </c>
       <c r="F203" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G203" s="1">
         <v>201</v>
       </c>
       <c r="I203" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J203" s="1">
         <v>1</v>
@@ -8488,13 +8498,13 @@
         <v>199</v>
       </c>
       <c r="B204" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D204" s="1">
         <v>1010101</v>
       </c>
       <c r="F204" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G204" s="1">
         <v>301</v>
@@ -8503,7 +8513,7 @@
         <v>31</v>
       </c>
       <c r="I204" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J204" s="1">
         <v>1</v>
@@ -8526,13 +8536,13 @@
         <v>200</v>
       </c>
       <c r="B205" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D205" s="1">
         <v>1010102</v>
       </c>
       <c r="F205" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G205" s="1">
         <v>301</v>
@@ -8541,7 +8551,7 @@
         <v>31</v>
       </c>
       <c r="I205" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J205" s="1">
         <v>1</v>
@@ -8564,13 +8574,13 @@
         <v>201</v>
       </c>
       <c r="B206" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D206" s="1">
         <v>1010103</v>
       </c>
       <c r="F206" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G206" s="1">
         <v>301</v>
@@ -8579,7 +8589,7 @@
         <v>31</v>
       </c>
       <c r="I206" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J206" s="1">
         <v>1</v>
@@ -8602,13 +8612,13 @@
         <v>202</v>
       </c>
       <c r="B207" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D207" s="1">
         <v>1010104</v>
       </c>
       <c r="F207" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G207" s="1">
         <v>301</v>
@@ -8617,7 +8627,7 @@
         <v>31</v>
       </c>
       <c r="I207" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J207" s="1">
         <v>1</v>
@@ -8640,13 +8650,13 @@
         <v>203</v>
       </c>
       <c r="B208" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D208" s="1">
         <v>1010105</v>
       </c>
       <c r="F208" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G208" s="1">
         <v>301</v>
@@ -8655,7 +8665,7 @@
         <v>31</v>
       </c>
       <c r="I208" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J208" s="1">
         <v>1</v>
@@ -8678,13 +8688,13 @@
         <v>204</v>
       </c>
       <c r="B209" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D209" s="1">
         <v>1010105</v>
       </c>
       <c r="F209" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G209" s="1">
         <v>301</v>
@@ -8693,7 +8703,7 @@
         <v>31</v>
       </c>
       <c r="I209" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J209" s="1">
         <v>1</v>
@@ -8716,13 +8726,13 @@
         <v>205</v>
       </c>
       <c r="B210" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D210" s="1">
         <v>1010201</v>
       </c>
       <c r="F210" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G210" s="1">
         <v>301</v>
@@ -8731,7 +8741,7 @@
         <v>31</v>
       </c>
       <c r="I210" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J210" s="1">
         <v>2</v>
@@ -8754,13 +8764,13 @@
         <v>206</v>
       </c>
       <c r="B211" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D211" s="1">
         <v>1010202</v>
       </c>
       <c r="F211" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G211" s="1">
         <v>301</v>
@@ -8769,7 +8779,7 @@
         <v>31</v>
       </c>
       <c r="I211" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J211" s="1">
         <v>2</v>
@@ -8792,13 +8802,13 @@
         <v>207</v>
       </c>
       <c r="B212" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D212" s="1">
         <v>1010203</v>
       </c>
       <c r="F212" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G212" s="1">
         <v>301</v>
@@ -8807,7 +8817,7 @@
         <v>31</v>
       </c>
       <c r="I212" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J212" s="1">
         <v>2</v>
@@ -8830,13 +8840,13 @@
         <v>208</v>
       </c>
       <c r="B213" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D213" s="1">
         <v>1010204</v>
       </c>
       <c r="F213" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G213" s="1">
         <v>301</v>
@@ -8845,7 +8855,7 @@
         <v>31</v>
       </c>
       <c r="I213" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J213" s="1">
         <v>2</v>
@@ -8868,13 +8878,13 @@
         <v>209</v>
       </c>
       <c r="B214" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D214" s="1">
         <v>1010205</v>
       </c>
       <c r="F214" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G214" s="1">
         <v>301</v>
@@ -8883,7 +8893,7 @@
         <v>31</v>
       </c>
       <c r="I214" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J214" s="1">
         <v>2</v>
@@ -8906,13 +8916,13 @@
         <v>210</v>
       </c>
       <c r="B215" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D215" s="1">
         <v>1010205</v>
       </c>
       <c r="F215" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G215" s="1">
         <v>301</v>
@@ -8921,7 +8931,7 @@
         <v>31</v>
       </c>
       <c r="I215" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J215" s="1">
         <v>2</v>
@@ -8944,13 +8954,13 @@
         <v>211</v>
       </c>
       <c r="B216" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D216" s="1">
         <v>1010301</v>
       </c>
       <c r="F216" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G216" s="1">
         <v>301</v>
@@ -8959,7 +8969,7 @@
         <v>31</v>
       </c>
       <c r="I216" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J216" s="1">
         <v>3</v>
@@ -8982,13 +8992,13 @@
         <v>212</v>
       </c>
       <c r="B217" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D217" s="1">
         <v>1010302</v>
       </c>
       <c r="F217" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G217" s="1">
         <v>301</v>
@@ -8997,7 +9007,7 @@
         <v>31</v>
       </c>
       <c r="I217" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J217" s="1">
         <v>3</v>
@@ -9020,13 +9030,13 @@
         <v>213</v>
       </c>
       <c r="B218" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D218" s="1">
         <v>1010303</v>
       </c>
       <c r="F218" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G218" s="1">
         <v>301</v>
@@ -9035,7 +9045,7 @@
         <v>31</v>
       </c>
       <c r="I218" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J218" s="1">
         <v>3</v>
@@ -9058,13 +9068,13 @@
         <v>214</v>
       </c>
       <c r="B219" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D219" s="1">
         <v>1010304</v>
       </c>
       <c r="F219" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G219" s="1">
         <v>301</v>
@@ -9073,7 +9083,7 @@
         <v>31</v>
       </c>
       <c r="I219" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J219" s="1">
         <v>3</v>
@@ -9096,13 +9106,13 @@
         <v>215</v>
       </c>
       <c r="B220" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D220" s="1">
         <v>1010305</v>
       </c>
       <c r="F220" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G220" s="1">
         <v>301</v>
@@ -9111,7 +9121,7 @@
         <v>31</v>
       </c>
       <c r="I220" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J220" s="1">
         <v>3</v>
@@ -9134,13 +9144,13 @@
         <v>216</v>
       </c>
       <c r="B221" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D221" s="1">
         <v>1010305</v>
       </c>
       <c r="F221" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G221" s="1">
         <v>301</v>
@@ -9149,7 +9159,7 @@
         <v>31</v>
       </c>
       <c r="I221" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J221" s="1">
         <v>3</v>
@@ -9172,13 +9182,13 @@
         <v>217</v>
       </c>
       <c r="B222" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D222" s="1">
         <v>1010401</v>
       </c>
       <c r="F222" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G222" s="1">
         <v>301</v>
@@ -9187,7 +9197,7 @@
         <v>31</v>
       </c>
       <c r="I222" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J222" s="1">
         <v>4</v>
@@ -9210,13 +9220,13 @@
         <v>218</v>
       </c>
       <c r="B223" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D223" s="1">
         <v>1010402</v>
       </c>
       <c r="F223" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G223" s="1">
         <v>301</v>
@@ -9225,7 +9235,7 @@
         <v>31</v>
       </c>
       <c r="I223" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J223" s="1">
         <v>4</v>
@@ -9248,13 +9258,13 @@
         <v>219</v>
       </c>
       <c r="B224" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D224" s="1">
         <v>1010403</v>
       </c>
       <c r="F224" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G224" s="1">
         <v>301</v>
@@ -9263,7 +9273,7 @@
         <v>31</v>
       </c>
       <c r="I224" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J224" s="1">
         <v>4</v>
@@ -9286,13 +9296,13 @@
         <v>220</v>
       </c>
       <c r="B225" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D225" s="1">
         <v>1010404</v>
       </c>
       <c r="F225" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G225" s="1">
         <v>301</v>
@@ -9301,7 +9311,7 @@
         <v>31</v>
       </c>
       <c r="I225" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J225" s="1">
         <v>4</v>
@@ -9324,13 +9334,13 @@
         <v>221</v>
       </c>
       <c r="B226" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D226" s="1">
         <v>1010405</v>
       </c>
       <c r="F226" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G226" s="1">
         <v>301</v>
@@ -9339,7 +9349,7 @@
         <v>31</v>
       </c>
       <c r="I226" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J226" s="1">
         <v>4</v>
@@ -9362,13 +9372,13 @@
         <v>222</v>
       </c>
       <c r="B227" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D227" s="1">
         <v>1010405</v>
       </c>
       <c r="F227" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G227" s="1">
         <v>301</v>
@@ -9377,7 +9387,7 @@
         <v>31</v>
       </c>
       <c r="I227" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J227" s="1">
         <v>4</v>
@@ -9400,7 +9410,7 @@
         <v>223</v>
       </c>
       <c r="B228" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D228" s="1">
         <v>1010501</v>
@@ -9409,7 +9419,7 @@
         <v>12052</v>
       </c>
       <c r="F228" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G228" s="1">
         <v>301</v>
@@ -9418,7 +9428,7 @@
         <v>31</v>
       </c>
       <c r="I228" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J228" s="1">
         <v>5</v>
@@ -9441,7 +9451,7 @@
         <v>224</v>
       </c>
       <c r="B229" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D229" s="1">
         <v>1010502</v>
@@ -9450,7 +9460,7 @@
         <v>12052</v>
       </c>
       <c r="F229" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G229" s="1">
         <v>301</v>
@@ -9459,7 +9469,7 @@
         <v>31</v>
       </c>
       <c r="I229" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J229" s="1">
         <v>5</v>
@@ -9482,7 +9492,7 @@
         <v>225</v>
       </c>
       <c r="B230" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D230" s="1">
         <v>1010503</v>
@@ -9491,7 +9501,7 @@
         <v>12052</v>
       </c>
       <c r="F230" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G230" s="1">
         <v>301</v>
@@ -9500,7 +9510,7 @@
         <v>31</v>
       </c>
       <c r="I230" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J230" s="1">
         <v>5</v>
@@ -9523,7 +9533,7 @@
         <v>226</v>
       </c>
       <c r="B231" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D231" s="1">
         <v>1010504</v>
@@ -9532,7 +9542,7 @@
         <v>12052</v>
       </c>
       <c r="F231" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G231" s="1">
         <v>301</v>
@@ -9541,7 +9551,7 @@
         <v>31</v>
       </c>
       <c r="I231" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J231" s="1">
         <v>5</v>
@@ -9564,7 +9574,7 @@
         <v>227</v>
       </c>
       <c r="B232" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D232" s="1">
         <v>1010505</v>
@@ -9573,7 +9583,7 @@
         <v>12052</v>
       </c>
       <c r="F232" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G232" s="1">
         <v>301</v>
@@ -9582,7 +9592,7 @@
         <v>31</v>
       </c>
       <c r="I232" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J232" s="1">
         <v>5</v>
@@ -9605,7 +9615,7 @@
         <v>228</v>
       </c>
       <c r="B233" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D233" s="1">
         <v>1010505</v>
@@ -9614,7 +9624,7 @@
         <v>12052</v>
       </c>
       <c r="F233" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G233" s="1">
         <v>301</v>
@@ -9623,7 +9633,7 @@
         <v>31</v>
       </c>
       <c r="I233" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J233" s="1">
         <v>5</v>
@@ -9646,13 +9656,13 @@
         <v>229</v>
       </c>
       <c r="B234" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D234" s="1">
         <v>1020101</v>
       </c>
       <c r="F234" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G234" s="1">
         <v>301</v>
@@ -9661,7 +9671,7 @@
         <v>32</v>
       </c>
       <c r="I234" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J234" s="1">
         <v>1</v>
@@ -9684,13 +9694,13 @@
         <v>230</v>
       </c>
       <c r="B235" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D235" s="1">
         <v>1020102</v>
       </c>
       <c r="F235" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G235" s="1">
         <v>301</v>
@@ -9699,7 +9709,7 @@
         <v>32</v>
       </c>
       <c r="I235" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J235" s="1">
         <v>1</v>
@@ -9722,13 +9732,13 @@
         <v>231</v>
       </c>
       <c r="B236" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D236" s="1">
         <v>1020103</v>
       </c>
       <c r="F236" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G236" s="1">
         <v>301</v>
@@ -9737,7 +9747,7 @@
         <v>32</v>
       </c>
       <c r="I236" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J236" s="1">
         <v>1</v>
@@ -9760,13 +9770,13 @@
         <v>232</v>
       </c>
       <c r="B237" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D237" s="1">
         <v>1020104</v>
       </c>
       <c r="F237" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G237" s="1">
         <v>301</v>
@@ -9775,7 +9785,7 @@
         <v>32</v>
       </c>
       <c r="I237" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J237" s="1">
         <v>1</v>
@@ -9798,13 +9808,13 @@
         <v>233</v>
       </c>
       <c r="B238" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D238" s="1">
         <v>1020105</v>
       </c>
       <c r="F238" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G238" s="1">
         <v>301</v>
@@ -9813,7 +9823,7 @@
         <v>32</v>
       </c>
       <c r="I238" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J238" s="1">
         <v>1</v>
@@ -9836,13 +9846,13 @@
         <v>234</v>
       </c>
       <c r="B239" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D239" s="1">
         <v>1020105</v>
       </c>
       <c r="F239" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G239" s="1">
         <v>301</v>
@@ -9851,7 +9861,7 @@
         <v>32</v>
       </c>
       <c r="I239" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J239" s="1">
         <v>1</v>
@@ -9874,13 +9884,13 @@
         <v>235</v>
       </c>
       <c r="B240" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D240" s="1">
         <v>1020201</v>
       </c>
       <c r="F240" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G240" s="1">
         <v>301</v>
@@ -9889,7 +9899,7 @@
         <v>32</v>
       </c>
       <c r="I240" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J240" s="1">
         <v>2</v>
@@ -9912,13 +9922,13 @@
         <v>236</v>
       </c>
       <c r="B241" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D241" s="1">
         <v>1020202</v>
       </c>
       <c r="F241" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G241" s="1">
         <v>301</v>
@@ -9927,7 +9937,7 @@
         <v>32</v>
       </c>
       <c r="I241" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J241" s="1">
         <v>2</v>
@@ -9950,13 +9960,13 @@
         <v>237</v>
       </c>
       <c r="B242" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D242" s="1">
         <v>1020203</v>
       </c>
       <c r="F242" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G242" s="1">
         <v>301</v>
@@ -9965,7 +9975,7 @@
         <v>32</v>
       </c>
       <c r="I242" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J242" s="1">
         <v>2</v>
@@ -9988,13 +9998,13 @@
         <v>238</v>
       </c>
       <c r="B243" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D243" s="1">
         <v>1020204</v>
       </c>
       <c r="F243" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G243" s="1">
         <v>301</v>
@@ -10003,7 +10013,7 @@
         <v>32</v>
       </c>
       <c r="I243" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J243" s="1">
         <v>2</v>
@@ -10026,13 +10036,13 @@
         <v>239</v>
       </c>
       <c r="B244" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D244" s="1">
         <v>1020205</v>
       </c>
       <c r="F244" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G244" s="1">
         <v>301</v>
@@ -10041,7 +10051,7 @@
         <v>32</v>
       </c>
       <c r="I244" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J244" s="1">
         <v>2</v>
@@ -10064,13 +10074,13 @@
         <v>240</v>
       </c>
       <c r="B245" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D245" s="1">
         <v>1020205</v>
       </c>
       <c r="F245" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G245" s="1">
         <v>301</v>
@@ -10079,7 +10089,7 @@
         <v>32</v>
       </c>
       <c r="I245" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J245" s="1">
         <v>2</v>
@@ -10102,13 +10112,13 @@
         <v>241</v>
       </c>
       <c r="B246" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D246" s="1">
         <v>1020301</v>
       </c>
       <c r="F246" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G246" s="1">
         <v>301</v>
@@ -10117,7 +10127,7 @@
         <v>32</v>
       </c>
       <c r="I246" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J246" s="1">
         <v>3</v>
@@ -10140,13 +10150,13 @@
         <v>242</v>
       </c>
       <c r="B247" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D247" s="1">
         <v>1020302</v>
       </c>
       <c r="F247" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G247" s="1">
         <v>301</v>
@@ -10155,7 +10165,7 @@
         <v>32</v>
       </c>
       <c r="I247" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J247" s="1">
         <v>3</v>
@@ -10178,13 +10188,13 @@
         <v>243</v>
       </c>
       <c r="B248" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D248" s="1">
         <v>1020303</v>
       </c>
       <c r="F248" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G248" s="1">
         <v>301</v>
@@ -10193,7 +10203,7 @@
         <v>32</v>
       </c>
       <c r="I248" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J248" s="1">
         <v>3</v>
@@ -10216,13 +10226,13 @@
         <v>244</v>
       </c>
       <c r="B249" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D249" s="1">
         <v>1020304</v>
       </c>
       <c r="F249" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G249" s="1">
         <v>301</v>
@@ -10231,7 +10241,7 @@
         <v>32</v>
       </c>
       <c r="I249" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J249" s="1">
         <v>3</v>
@@ -10254,13 +10264,13 @@
         <v>245</v>
       </c>
       <c r="B250" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D250" s="1">
         <v>1020305</v>
       </c>
       <c r="F250" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G250" s="1">
         <v>301</v>
@@ -10269,7 +10279,7 @@
         <v>32</v>
       </c>
       <c r="I250" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J250" s="1">
         <v>3</v>
@@ -10292,13 +10302,13 @@
         <v>246</v>
       </c>
       <c r="B251" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D251" s="1">
         <v>1020305</v>
       </c>
       <c r="F251" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G251" s="1">
         <v>301</v>
@@ -10307,7 +10317,7 @@
         <v>32</v>
       </c>
       <c r="I251" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J251" s="1">
         <v>3</v>
@@ -10330,13 +10340,13 @@
         <v>247</v>
       </c>
       <c r="B252" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D252" s="1">
         <v>1020401</v>
       </c>
       <c r="F252" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G252" s="1">
         <v>301</v>
@@ -10345,7 +10355,7 @@
         <v>32</v>
       </c>
       <c r="I252" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J252" s="1">
         <v>4</v>
@@ -10368,13 +10378,13 @@
         <v>248</v>
       </c>
       <c r="B253" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D253" s="1">
         <v>1020402</v>
       </c>
       <c r="F253" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G253" s="1">
         <v>301</v>
@@ -10383,7 +10393,7 @@
         <v>32</v>
       </c>
       <c r="I253" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J253" s="1">
         <v>4</v>
@@ -10406,13 +10416,13 @@
         <v>249</v>
       </c>
       <c r="B254" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D254" s="1">
         <v>1020403</v>
       </c>
       <c r="F254" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G254" s="1">
         <v>301</v>
@@ -10421,7 +10431,7 @@
         <v>32</v>
       </c>
       <c r="I254" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J254" s="1">
         <v>4</v>
@@ -10444,13 +10454,13 @@
         <v>250</v>
       </c>
       <c r="B255" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D255" s="1">
         <v>1020404</v>
       </c>
       <c r="F255" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G255" s="1">
         <v>301</v>
@@ -10459,7 +10469,7 @@
         <v>32</v>
       </c>
       <c r="I255" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J255" s="1">
         <v>4</v>
@@ -10482,13 +10492,13 @@
         <v>251</v>
       </c>
       <c r="B256" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D256" s="1">
         <v>1020405</v>
       </c>
       <c r="F256" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G256" s="1">
         <v>301</v>
@@ -10497,7 +10507,7 @@
         <v>32</v>
       </c>
       <c r="I256" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J256" s="1">
         <v>4</v>
@@ -10520,13 +10530,13 @@
         <v>252</v>
       </c>
       <c r="B257" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D257" s="1">
         <v>1020405</v>
       </c>
       <c r="F257" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G257" s="1">
         <v>301</v>
@@ -10535,7 +10545,7 @@
         <v>32</v>
       </c>
       <c r="I257" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J257" s="1">
         <v>4</v>
@@ -10558,7 +10568,7 @@
         <v>253</v>
       </c>
       <c r="B258" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D258" s="1">
         <v>1020501</v>
@@ -10567,7 +10577,7 @@
         <v>12052</v>
       </c>
       <c r="F258" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G258" s="1">
         <v>301</v>
@@ -10576,7 +10586,7 @@
         <v>32</v>
       </c>
       <c r="I258" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J258" s="1">
         <v>5</v>
@@ -10599,7 +10609,7 @@
         <v>254</v>
       </c>
       <c r="B259" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D259" s="1">
         <v>1020502</v>
@@ -10608,7 +10618,7 @@
         <v>12052</v>
       </c>
       <c r="F259" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G259" s="1">
         <v>301</v>
@@ -10617,7 +10627,7 @@
         <v>32</v>
       </c>
       <c r="I259" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J259" s="1">
         <v>5</v>
@@ -10640,7 +10650,7 @@
         <v>255</v>
       </c>
       <c r="B260" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D260" s="1">
         <v>1020503</v>
@@ -10649,7 +10659,7 @@
         <v>12052</v>
       </c>
       <c r="F260" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G260" s="1">
         <v>301</v>
@@ -10658,7 +10668,7 @@
         <v>32</v>
       </c>
       <c r="I260" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J260" s="1">
         <v>5</v>
@@ -10681,7 +10691,7 @@
         <v>256</v>
       </c>
       <c r="B261" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D261" s="1">
         <v>1020504</v>
@@ -10690,7 +10700,7 @@
         <v>12052</v>
       </c>
       <c r="F261" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G261" s="1">
         <v>301</v>
@@ -10699,7 +10709,7 @@
         <v>32</v>
       </c>
       <c r="I261" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J261" s="1">
         <v>5</v>
@@ -10722,7 +10732,7 @@
         <v>257</v>
       </c>
       <c r="B262" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D262" s="1">
         <v>1020505</v>
@@ -10731,7 +10741,7 @@
         <v>12052</v>
       </c>
       <c r="F262" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G262" s="1">
         <v>301</v>
@@ -10740,7 +10750,7 @@
         <v>32</v>
       </c>
       <c r="I262" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J262" s="1">
         <v>5</v>
@@ -10763,7 +10773,7 @@
         <v>258</v>
       </c>
       <c r="B263" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D263" s="1">
         <v>1020505</v>
@@ -10772,7 +10782,7 @@
         <v>12052</v>
       </c>
       <c r="F263" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G263" s="1">
         <v>301</v>
@@ -10781,7 +10791,7 @@
         <v>32</v>
       </c>
       <c r="I263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J263" s="1">
         <v>5</v>
@@ -10804,13 +10814,13 @@
         <v>259</v>
       </c>
       <c r="B264" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D264" s="1">
         <v>1030101</v>
       </c>
       <c r="F264" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G264" s="1">
         <v>301</v>
@@ -10819,7 +10829,7 @@
         <v>33</v>
       </c>
       <c r="I264" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J264" s="1">
         <v>1</v>
@@ -10842,13 +10852,13 @@
         <v>260</v>
       </c>
       <c r="B265" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D265" s="1">
         <v>1030102</v>
       </c>
       <c r="F265" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G265" s="1">
         <v>301</v>
@@ -10857,7 +10867,7 @@
         <v>33</v>
       </c>
       <c r="I265" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J265" s="1">
         <v>1</v>
@@ -10880,13 +10890,13 @@
         <v>261</v>
       </c>
       <c r="B266" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D266" s="1">
         <v>1030103</v>
       </c>
       <c r="F266" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G266" s="1">
         <v>301</v>
@@ -10895,7 +10905,7 @@
         <v>33</v>
       </c>
       <c r="I266" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J266" s="1">
         <v>1</v>
@@ -10918,13 +10928,13 @@
         <v>262</v>
       </c>
       <c r="B267" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D267" s="1">
         <v>1030104</v>
       </c>
       <c r="F267" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G267" s="1">
         <v>301</v>
@@ -10933,7 +10943,7 @@
         <v>33</v>
       </c>
       <c r="I267" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J267" s="1">
         <v>1</v>
@@ -10956,13 +10966,13 @@
         <v>263</v>
       </c>
       <c r="B268" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D268" s="1">
         <v>1030105</v>
       </c>
       <c r="F268" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G268" s="1">
         <v>301</v>
@@ -10971,7 +10981,7 @@
         <v>33</v>
       </c>
       <c r="I268" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J268" s="1">
         <v>1</v>
@@ -10994,13 +11004,13 @@
         <v>264</v>
       </c>
       <c r="B269" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D269" s="1">
         <v>1030105</v>
       </c>
       <c r="F269" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G269" s="1">
         <v>301</v>
@@ -11009,7 +11019,7 @@
         <v>33</v>
       </c>
       <c r="I269" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J269" s="1">
         <v>1</v>
@@ -11032,13 +11042,13 @@
         <v>265</v>
       </c>
       <c r="B270" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D270" s="1">
         <v>1030201</v>
       </c>
       <c r="F270" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G270" s="1">
         <v>301</v>
@@ -11047,7 +11057,7 @@
         <v>33</v>
       </c>
       <c r="I270" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J270" s="1">
         <v>2</v>
@@ -11070,13 +11080,13 @@
         <v>266</v>
       </c>
       <c r="B271" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D271" s="1">
         <v>1030202</v>
       </c>
       <c r="F271" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G271" s="1">
         <v>301</v>
@@ -11085,7 +11095,7 @@
         <v>33</v>
       </c>
       <c r="I271" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J271" s="1">
         <v>2</v>
@@ -11108,13 +11118,13 @@
         <v>267</v>
       </c>
       <c r="B272" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D272" s="1">
         <v>1030203</v>
       </c>
       <c r="F272" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G272" s="1">
         <v>301</v>
@@ -11123,7 +11133,7 @@
         <v>33</v>
       </c>
       <c r="I272" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J272" s="1">
         <v>2</v>
@@ -11146,13 +11156,13 @@
         <v>268</v>
       </c>
       <c r="B273" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D273" s="1">
         <v>1030204</v>
       </c>
       <c r="F273" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G273" s="1">
         <v>301</v>
@@ -11161,7 +11171,7 @@
         <v>33</v>
       </c>
       <c r="I273" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J273" s="1">
         <v>2</v>
@@ -11184,13 +11194,13 @@
         <v>269</v>
       </c>
       <c r="B274" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D274" s="1">
         <v>1030205</v>
       </c>
       <c r="F274" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G274" s="1">
         <v>301</v>
@@ -11199,7 +11209,7 @@
         <v>33</v>
       </c>
       <c r="I274" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J274" s="1">
         <v>2</v>
@@ -11222,13 +11232,13 @@
         <v>270</v>
       </c>
       <c r="B275" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D275" s="1">
         <v>1030205</v>
       </c>
       <c r="F275" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G275" s="1">
         <v>301</v>
@@ -11237,7 +11247,7 @@
         <v>33</v>
       </c>
       <c r="I275" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J275" s="1">
         <v>2</v>
@@ -11260,13 +11270,13 @@
         <v>271</v>
       </c>
       <c r="B276" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D276" s="1">
         <v>1030301</v>
       </c>
       <c r="F276" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G276" s="1">
         <v>301</v>
@@ -11275,7 +11285,7 @@
         <v>33</v>
       </c>
       <c r="I276" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J276" s="1">
         <v>3</v>
@@ -11298,13 +11308,13 @@
         <v>272</v>
       </c>
       <c r="B277" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D277" s="1">
         <v>1030302</v>
       </c>
       <c r="F277" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G277" s="1">
         <v>301</v>
@@ -11313,7 +11323,7 @@
         <v>33</v>
       </c>
       <c r="I277" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J277" s="1">
         <v>3</v>
@@ -11336,13 +11346,13 @@
         <v>273</v>
       </c>
       <c r="B278" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D278" s="1">
         <v>1030303</v>
       </c>
       <c r="F278" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G278" s="1">
         <v>301</v>
@@ -11351,7 +11361,7 @@
         <v>33</v>
       </c>
       <c r="I278" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J278" s="1">
         <v>3</v>
@@ -11374,13 +11384,13 @@
         <v>274</v>
       </c>
       <c r="B279" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D279" s="1">
         <v>1030304</v>
       </c>
       <c r="F279" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G279" s="1">
         <v>301</v>
@@ -11389,7 +11399,7 @@
         <v>33</v>
       </c>
       <c r="I279" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J279" s="1">
         <v>3</v>
@@ -11412,13 +11422,13 @@
         <v>275</v>
       </c>
       <c r="B280" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D280" s="1">
         <v>1030305</v>
       </c>
       <c r="F280" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G280" s="1">
         <v>301</v>
@@ -11427,7 +11437,7 @@
         <v>33</v>
       </c>
       <c r="I280" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J280" s="1">
         <v>3</v>
@@ -11450,13 +11460,13 @@
         <v>276</v>
       </c>
       <c r="B281" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D281" s="1">
         <v>1030305</v>
       </c>
       <c r="F281" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G281" s="1">
         <v>301</v>
@@ -11465,7 +11475,7 @@
         <v>33</v>
       </c>
       <c r="I281" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J281" s="1">
         <v>3</v>
@@ -11488,13 +11498,13 @@
         <v>277</v>
       </c>
       <c r="B282" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D282" s="1">
         <v>1030401</v>
       </c>
       <c r="F282" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G282" s="1">
         <v>301</v>
@@ -11503,7 +11513,7 @@
         <v>33</v>
       </c>
       <c r="I282" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J282" s="1">
         <v>4</v>
@@ -11526,13 +11536,13 @@
         <v>278</v>
       </c>
       <c r="B283" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D283" s="1">
         <v>1030402</v>
       </c>
       <c r="F283" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G283" s="1">
         <v>301</v>
@@ -11541,7 +11551,7 @@
         <v>33</v>
       </c>
       <c r="I283" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J283" s="1">
         <v>4</v>
@@ -11564,13 +11574,13 @@
         <v>279</v>
       </c>
       <c r="B284" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D284" s="1">
         <v>1030403</v>
       </c>
       <c r="F284" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G284" s="1">
         <v>301</v>
@@ -11579,7 +11589,7 @@
         <v>33</v>
       </c>
       <c r="I284" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J284" s="1">
         <v>4</v>
@@ -11602,13 +11612,13 @@
         <v>280</v>
       </c>
       <c r="B285" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D285" s="1">
         <v>1030404</v>
       </c>
       <c r="F285" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G285" s="1">
         <v>301</v>
@@ -11617,7 +11627,7 @@
         <v>33</v>
       </c>
       <c r="I285" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J285" s="1">
         <v>4</v>
@@ -11640,13 +11650,13 @@
         <v>281</v>
       </c>
       <c r="B286" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D286" s="1">
         <v>1030405</v>
       </c>
       <c r="F286" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G286" s="1">
         <v>301</v>
@@ -11655,7 +11665,7 @@
         <v>33</v>
       </c>
       <c r="I286" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J286" s="1">
         <v>4</v>
@@ -11678,13 +11688,13 @@
         <v>282</v>
       </c>
       <c r="B287" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D287" s="1">
         <v>1030405</v>
       </c>
       <c r="F287" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G287" s="1">
         <v>301</v>
@@ -11693,7 +11703,7 @@
         <v>33</v>
       </c>
       <c r="I287" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J287" s="1">
         <v>4</v>
@@ -11716,7 +11726,7 @@
         <v>283</v>
       </c>
       <c r="B288" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D288" s="1">
         <v>1030501</v>
@@ -11725,7 +11735,7 @@
         <v>12052</v>
       </c>
       <c r="F288" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G288" s="1">
         <v>301</v>
@@ -11734,7 +11744,7 @@
         <v>33</v>
       </c>
       <c r="I288" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J288" s="1">
         <v>5</v>
@@ -11757,7 +11767,7 @@
         <v>284</v>
       </c>
       <c r="B289" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D289" s="1">
         <v>1030502</v>
@@ -11766,7 +11776,7 @@
         <v>12052</v>
       </c>
       <c r="F289" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G289" s="1">
         <v>301</v>
@@ -11775,7 +11785,7 @@
         <v>33</v>
       </c>
       <c r="I289" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J289" s="1">
         <v>5</v>
@@ -11798,7 +11808,7 @@
         <v>285</v>
       </c>
       <c r="B290" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D290" s="1">
         <v>1030503</v>
@@ -11807,7 +11817,7 @@
         <v>12052</v>
       </c>
       <c r="F290" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G290" s="1">
         <v>301</v>
@@ -11816,7 +11826,7 @@
         <v>33</v>
       </c>
       <c r="I290" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J290" s="1">
         <v>5</v>
@@ -11839,7 +11849,7 @@
         <v>286</v>
       </c>
       <c r="B291" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D291" s="1">
         <v>1030504</v>
@@ -11848,7 +11858,7 @@
         <v>12052</v>
       </c>
       <c r="F291" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G291" s="1">
         <v>301</v>
@@ -11857,7 +11867,7 @@
         <v>33</v>
       </c>
       <c r="I291" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J291" s="1">
         <v>5</v>
@@ -11880,7 +11890,7 @@
         <v>287</v>
       </c>
       <c r="B292" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D292" s="1">
         <v>1030505</v>
@@ -11889,7 +11899,7 @@
         <v>12052</v>
       </c>
       <c r="F292" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G292" s="1">
         <v>301</v>
@@ -11898,7 +11908,7 @@
         <v>33</v>
       </c>
       <c r="I292" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J292" s="1">
         <v>5</v>
@@ -11921,7 +11931,7 @@
         <v>288</v>
       </c>
       <c r="B293" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D293" s="1">
         <v>1030505</v>
@@ -11930,7 +11940,7 @@
         <v>12052</v>
       </c>
       <c r="F293" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G293" s="1">
         <v>301</v>
@@ -11939,7 +11949,7 @@
         <v>33</v>
       </c>
       <c r="I293" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J293" s="1">
         <v>5</v>
@@ -11962,13 +11972,13 @@
         <v>289</v>
       </c>
       <c r="B294" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D294" s="1">
         <v>1040101</v>
       </c>
       <c r="F294" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G294" s="1">
         <v>301</v>
@@ -11977,7 +11987,7 @@
         <v>34</v>
       </c>
       <c r="I294" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J294" s="1">
         <v>1</v>
@@ -12000,13 +12010,13 @@
         <v>290</v>
       </c>
       <c r="B295" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D295" s="1">
         <v>1040102</v>
       </c>
       <c r="F295" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G295" s="1">
         <v>301</v>
@@ -12015,7 +12025,7 @@
         <v>34</v>
       </c>
       <c r="I295" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J295" s="1">
         <v>1</v>
@@ -12038,13 +12048,13 @@
         <v>291</v>
       </c>
       <c r="B296" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D296" s="1">
         <v>1040103</v>
       </c>
       <c r="F296" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G296" s="1">
         <v>301</v>
@@ -12053,7 +12063,7 @@
         <v>34</v>
       </c>
       <c r="I296" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J296" s="1">
         <v>1</v>
@@ -12076,13 +12086,13 @@
         <v>292</v>
       </c>
       <c r="B297" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D297" s="1">
         <v>1040104</v>
       </c>
       <c r="F297" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G297" s="1">
         <v>301</v>
@@ -12091,7 +12101,7 @@
         <v>34</v>
       </c>
       <c r="I297" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J297" s="1">
         <v>1</v>
@@ -12114,13 +12124,13 @@
         <v>293</v>
       </c>
       <c r="B298" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D298" s="1">
         <v>1040105</v>
       </c>
       <c r="F298" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G298" s="1">
         <v>301</v>
@@ -12129,7 +12139,7 @@
         <v>34</v>
       </c>
       <c r="I298" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J298" s="1">
         <v>1</v>
@@ -12152,13 +12162,13 @@
         <v>294</v>
       </c>
       <c r="B299" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D299" s="1">
         <v>1040105</v>
       </c>
       <c r="F299" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G299" s="1">
         <v>301</v>
@@ -12167,7 +12177,7 @@
         <v>34</v>
       </c>
       <c r="I299" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J299" s="1">
         <v>1</v>
@@ -12190,13 +12200,13 @@
         <v>295</v>
       </c>
       <c r="B300" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D300" s="1">
         <v>1040201</v>
       </c>
       <c r="F300" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G300" s="1">
         <v>301</v>
@@ -12205,7 +12215,7 @@
         <v>34</v>
       </c>
       <c r="I300" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J300" s="1">
         <v>2</v>
@@ -12228,13 +12238,13 @@
         <v>296</v>
       </c>
       <c r="B301" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D301" s="1">
         <v>1040202</v>
       </c>
       <c r="F301" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G301" s="1">
         <v>301</v>
@@ -12243,7 +12253,7 @@
         <v>34</v>
       </c>
       <c r="I301" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J301" s="1">
         <v>2</v>
@@ -12266,13 +12276,13 @@
         <v>297</v>
       </c>
       <c r="B302" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D302" s="1">
         <v>1040203</v>
       </c>
       <c r="F302" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G302" s="1">
         <v>301</v>
@@ -12281,7 +12291,7 @@
         <v>34</v>
       </c>
       <c r="I302" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J302" s="1">
         <v>2</v>
@@ -12304,13 +12314,13 @@
         <v>298</v>
       </c>
       <c r="B303" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D303" s="1">
         <v>1040204</v>
       </c>
       <c r="F303" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G303" s="1">
         <v>301</v>
@@ -12319,7 +12329,7 @@
         <v>34</v>
       </c>
       <c r="I303" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J303" s="1">
         <v>2</v>
@@ -12342,13 +12352,13 @@
         <v>299</v>
       </c>
       <c r="B304" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D304" s="1">
         <v>1040205</v>
       </c>
       <c r="F304" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G304" s="1">
         <v>301</v>
@@ -12357,7 +12367,7 @@
         <v>34</v>
       </c>
       <c r="I304" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J304" s="1">
         <v>2</v>
@@ -12380,13 +12390,13 @@
         <v>300</v>
       </c>
       <c r="B305" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D305" s="1">
         <v>1040205</v>
       </c>
       <c r="F305" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G305" s="1">
         <v>301</v>
@@ -12395,7 +12405,7 @@
         <v>34</v>
       </c>
       <c r="I305" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J305" s="1">
         <v>2</v>
@@ -12418,13 +12428,13 @@
         <v>301</v>
       </c>
       <c r="B306" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D306" s="1">
         <v>1040301</v>
       </c>
       <c r="F306" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G306" s="1">
         <v>301</v>
@@ -12433,7 +12443,7 @@
         <v>34</v>
       </c>
       <c r="I306" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J306" s="1">
         <v>3</v>
@@ -12456,13 +12466,13 @@
         <v>302</v>
       </c>
       <c r="B307" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D307" s="1">
         <v>1040302</v>
       </c>
       <c r="F307" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G307" s="1">
         <v>301</v>
@@ -12471,7 +12481,7 @@
         <v>34</v>
       </c>
       <c r="I307" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J307" s="1">
         <v>3</v>
@@ -12494,13 +12504,13 @@
         <v>303</v>
       </c>
       <c r="B308" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D308" s="1">
         <v>1040303</v>
       </c>
       <c r="F308" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G308" s="1">
         <v>301</v>
@@ -12509,7 +12519,7 @@
         <v>34</v>
       </c>
       <c r="I308" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J308" s="1">
         <v>3</v>
@@ -12532,13 +12542,13 @@
         <v>304</v>
       </c>
       <c r="B309" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D309" s="1">
         <v>1040304</v>
       </c>
       <c r="F309" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G309" s="1">
         <v>301</v>
@@ -12547,7 +12557,7 @@
         <v>34</v>
       </c>
       <c r="I309" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J309" s="1">
         <v>3</v>
@@ -12570,13 +12580,13 @@
         <v>305</v>
       </c>
       <c r="B310" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D310" s="1">
         <v>1040305</v>
       </c>
       <c r="F310" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G310" s="1">
         <v>301</v>
@@ -12585,7 +12595,7 @@
         <v>34</v>
       </c>
       <c r="I310" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J310" s="1">
         <v>3</v>
@@ -12608,13 +12618,13 @@
         <v>306</v>
       </c>
       <c r="B311" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D311" s="1">
         <v>1040305</v>
       </c>
       <c r="F311" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G311" s="1">
         <v>301</v>
@@ -12623,7 +12633,7 @@
         <v>34</v>
       </c>
       <c r="I311" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J311" s="1">
         <v>3</v>
@@ -12646,13 +12656,13 @@
         <v>307</v>
       </c>
       <c r="B312" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D312" s="1">
         <v>1040401</v>
       </c>
       <c r="F312" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G312" s="1">
         <v>301</v>
@@ -12661,7 +12671,7 @@
         <v>34</v>
       </c>
       <c r="I312" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J312" s="1">
         <v>4</v>
@@ -12684,13 +12694,13 @@
         <v>308</v>
       </c>
       <c r="B313" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D313" s="1">
         <v>1040402</v>
       </c>
       <c r="F313" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G313" s="1">
         <v>301</v>
@@ -12699,7 +12709,7 @@
         <v>34</v>
       </c>
       <c r="I313" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J313" s="1">
         <v>4</v>
@@ -12722,13 +12732,13 @@
         <v>309</v>
       </c>
       <c r="B314" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D314" s="1">
         <v>1040403</v>
       </c>
       <c r="F314" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G314" s="1">
         <v>301</v>
@@ -12737,7 +12747,7 @@
         <v>34</v>
       </c>
       <c r="I314" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J314" s="1">
         <v>4</v>
@@ -12760,13 +12770,13 @@
         <v>310</v>
       </c>
       <c r="B315" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D315" s="1">
         <v>1040404</v>
       </c>
       <c r="F315" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G315" s="1">
         <v>301</v>
@@ -12775,7 +12785,7 @@
         <v>34</v>
       </c>
       <c r="I315" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J315" s="1">
         <v>4</v>
@@ -12798,13 +12808,13 @@
         <v>311</v>
       </c>
       <c r="B316" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D316" s="1">
         <v>1040405</v>
       </c>
       <c r="F316" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G316" s="1">
         <v>301</v>
@@ -12813,7 +12823,7 @@
         <v>34</v>
       </c>
       <c r="I316" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J316" s="1">
         <v>4</v>
@@ -12836,13 +12846,13 @@
         <v>312</v>
       </c>
       <c r="B317" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D317" s="1">
         <v>1040405</v>
       </c>
       <c r="F317" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G317" s="1">
         <v>301</v>
@@ -12851,7 +12861,7 @@
         <v>34</v>
       </c>
       <c r="I317" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J317" s="1">
         <v>4</v>
@@ -12874,7 +12884,7 @@
         <v>313</v>
       </c>
       <c r="B318" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D318" s="1">
         <v>1040501</v>
@@ -12883,7 +12893,7 @@
         <v>12052</v>
       </c>
       <c r="F318" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G318" s="1">
         <v>301</v>
@@ -12892,7 +12902,7 @@
         <v>34</v>
       </c>
       <c r="I318" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J318" s="1">
         <v>5</v>
@@ -12915,7 +12925,7 @@
         <v>314</v>
       </c>
       <c r="B319" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D319" s="1">
         <v>1040502</v>
@@ -12924,7 +12934,7 @@
         <v>12052</v>
       </c>
       <c r="F319" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G319" s="1">
         <v>301</v>
@@ -12933,7 +12943,7 @@
         <v>34</v>
       </c>
       <c r="I319" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J319" s="1">
         <v>5</v>
@@ -12956,7 +12966,7 @@
         <v>315</v>
       </c>
       <c r="B320" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D320" s="1">
         <v>1040503</v>
@@ -12965,7 +12975,7 @@
         <v>12052</v>
       </c>
       <c r="F320" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G320" s="1">
         <v>301</v>
@@ -12974,7 +12984,7 @@
         <v>34</v>
       </c>
       <c r="I320" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J320" s="1">
         <v>5</v>
@@ -12997,7 +13007,7 @@
         <v>316</v>
       </c>
       <c r="B321" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D321" s="1">
         <v>1040504</v>
@@ -13006,7 +13016,7 @@
         <v>12052</v>
       </c>
       <c r="F321" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G321" s="1">
         <v>301</v>
@@ -13015,7 +13025,7 @@
         <v>34</v>
       </c>
       <c r="I321" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J321" s="1">
         <v>5</v>
@@ -13038,7 +13048,7 @@
         <v>317</v>
       </c>
       <c r="B322" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D322" s="1">
         <v>1040505</v>
@@ -13047,7 +13057,7 @@
         <v>12052</v>
       </c>
       <c r="F322" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G322" s="1">
         <v>301</v>
@@ -13056,7 +13066,7 @@
         <v>34</v>
       </c>
       <c r="I322" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J322" s="1">
         <v>5</v>
@@ -13079,7 +13089,7 @@
         <v>318</v>
       </c>
       <c r="B323" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D323" s="1">
         <v>1040505</v>
@@ -13088,7 +13098,7 @@
         <v>12052</v>
       </c>
       <c r="F323" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G323" s="1">
         <v>301</v>
@@ -13097,7 +13107,7 @@
         <v>34</v>
       </c>
       <c r="I323" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J323" s="1">
         <v>5</v>
@@ -13120,13 +13130,13 @@
         <v>319</v>
       </c>
       <c r="B324" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D324" s="1">
         <v>1010301</v>
       </c>
       <c r="F324" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G324" s="1">
         <v>301</v>
@@ -13135,7 +13145,7 @@
         <v>31</v>
       </c>
       <c r="I324" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J324" s="1">
         <v>3</v>
@@ -13158,13 +13168,13 @@
         <v>320</v>
       </c>
       <c r="B325" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D325" s="1">
         <v>1020301</v>
       </c>
       <c r="F325" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G325" s="1">
         <v>301</v>
@@ -13173,7 +13183,7 @@
         <v>32</v>
       </c>
       <c r="I325" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J325" s="1">
         <v>3</v>
@@ -13196,13 +13206,13 @@
         <v>321</v>
       </c>
       <c r="B326" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D326" s="1">
         <v>1030301</v>
       </c>
       <c r="F326" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G326" s="1">
         <v>301</v>
@@ -13211,7 +13221,7 @@
         <v>33</v>
       </c>
       <c r="I326" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J326" s="1">
         <v>3</v>
@@ -13234,13 +13244,13 @@
         <v>322</v>
       </c>
       <c r="B327" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D327" s="1">
         <v>1040301</v>
       </c>
       <c r="F327" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G327" s="1">
         <v>301</v>
@@ -13249,7 +13259,7 @@
         <v>34</v>
       </c>
       <c r="I327" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J327" s="1">
         <v>3</v>
@@ -13272,19 +13282,19 @@
         <v>323</v>
       </c>
       <c r="B328" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D328" s="1">
         <v>2040401</v>
       </c>
       <c r="F328" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G328" s="1">
         <v>3</v>
       </c>
       <c r="I328" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J328" s="1">
         <v>4</v>
@@ -13310,19 +13320,19 @@
         <v>324</v>
       </c>
       <c r="B329" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D329" s="1">
         <v>2040401</v>
       </c>
       <c r="F329" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G329" s="1">
         <v>3</v>
       </c>
       <c r="I329" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J329" s="1">
         <v>4</v>
@@ -13348,19 +13358,19 @@
         <v>325</v>
       </c>
       <c r="B330" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D330" s="1">
         <v>2040401</v>
       </c>
       <c r="F330" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G330" s="1">
         <v>3</v>
       </c>
       <c r="I330" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J330" s="1">
         <v>4</v>
@@ -13386,19 +13396,19 @@
         <v>326</v>
       </c>
       <c r="B331" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D331" s="1">
         <v>2040401</v>
       </c>
       <c r="F331" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G331" s="1">
         <v>3</v>
       </c>
       <c r="I331" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J331" s="1">
         <v>4</v>
@@ -13424,19 +13434,19 @@
         <v>327</v>
       </c>
       <c r="B332" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D332" s="1">
         <v>2040401</v>
       </c>
       <c r="F332" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G332" s="1">
         <v>3</v>
       </c>
       <c r="I332" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J332" s="1">
         <v>4</v>
@@ -13462,19 +13472,19 @@
         <v>328</v>
       </c>
       <c r="B333" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D333" s="1">
         <v>2040401</v>
       </c>
       <c r="F333" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G333" s="1">
         <v>3</v>
       </c>
       <c r="I333" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J333" s="1">
         <v>4</v>
@@ -13500,19 +13510,19 @@
         <v>329</v>
       </c>
       <c r="B334" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D334" s="1">
         <v>2040401</v>
       </c>
       <c r="F334" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G334" s="1">
         <v>3</v>
       </c>
       <c r="I334" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J334" s="1">
         <v>4</v>
@@ -13538,19 +13548,19 @@
         <v>330</v>
       </c>
       <c r="B335" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D335" s="1">
         <v>2040401</v>
       </c>
       <c r="F335" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G335" s="1">
         <v>3</v>
       </c>
       <c r="I335" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J335" s="1">
         <v>4</v>
@@ -13576,19 +13586,19 @@
         <v>331</v>
       </c>
       <c r="B336" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D336" s="1">
         <v>2040401</v>
       </c>
       <c r="F336" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G336" s="1">
         <v>3</v>
       </c>
       <c r="I336" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J336" s="1">
         <v>4</v>
@@ -13614,19 +13624,19 @@
         <v>332</v>
       </c>
       <c r="B337" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D337" s="1">
         <v>2040401</v>
       </c>
       <c r="F337" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G337" s="1">
         <v>3</v>
       </c>
       <c r="I337" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J337" s="1">
         <v>4</v>
@@ -13652,19 +13662,19 @@
         <v>333</v>
       </c>
       <c r="B338" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D338" s="1">
         <v>2040401</v>
       </c>
       <c r="F338" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G338" s="1">
         <v>3</v>
       </c>
       <c r="I338" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J338" s="1">
         <v>4</v>
@@ -13690,19 +13700,19 @@
         <v>334</v>
       </c>
       <c r="B339" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D339" s="1">
         <v>2040401</v>
       </c>
       <c r="F339" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G339" s="1">
         <v>3</v>
       </c>
       <c r="I339" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J339" s="1">
         <v>4</v>
@@ -13728,19 +13738,19 @@
         <v>335</v>
       </c>
       <c r="B340" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D340" s="1">
         <v>2040401</v>
       </c>
       <c r="F340" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G340" s="1">
         <v>3</v>
       </c>
       <c r="I340" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J340" s="1">
         <v>4</v>
@@ -13766,19 +13776,19 @@
         <v>336</v>
       </c>
       <c r="B341" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D341" s="1">
         <v>2040401</v>
       </c>
       <c r="F341" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G341" s="1">
         <v>3</v>
       </c>
       <c r="I341" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J341" s="1">
         <v>4</v>
@@ -13804,19 +13814,19 @@
         <v>337</v>
       </c>
       <c r="B342" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D342" s="1">
         <v>2040401</v>
       </c>
       <c r="F342" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G342" s="1">
         <v>3</v>
       </c>
       <c r="I342" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J342" s="1">
         <v>4</v>
@@ -13842,19 +13852,19 @@
         <v>338</v>
       </c>
       <c r="B343" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D343" s="1">
         <v>2040401</v>
       </c>
       <c r="F343" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G343" s="1">
         <v>3</v>
       </c>
       <c r="I343" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J343" s="1">
         <v>4</v>
@@ -13880,19 +13890,19 @@
         <v>339</v>
       </c>
       <c r="B344" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D344" s="1">
         <v>2040401</v>
       </c>
       <c r="F344" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G344" s="1">
         <v>3</v>
       </c>
       <c r="I344" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J344" s="1">
         <v>4</v>
@@ -13918,19 +13928,19 @@
         <v>340</v>
       </c>
       <c r="B345" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D345" s="1">
         <v>2040401</v>
       </c>
       <c r="F345" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G345" s="1">
         <v>3</v>
       </c>
       <c r="I345" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J345" s="1">
         <v>4</v>
@@ -13956,19 +13966,19 @@
         <v>341</v>
       </c>
       <c r="B346" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D346" s="1">
         <v>2040401</v>
       </c>
       <c r="F346" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G346" s="1">
         <v>3</v>
       </c>
       <c r="I346" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J346" s="1">
         <v>4</v>
@@ -13994,19 +14004,19 @@
         <v>342</v>
       </c>
       <c r="B347" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D347" s="1">
         <v>2040401</v>
       </c>
       <c r="F347" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G347" s="1">
         <v>3</v>
       </c>
       <c r="I347" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J347" s="1">
         <v>4</v>
@@ -14032,19 +14042,19 @@
         <v>343</v>
       </c>
       <c r="B348" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D348" s="1">
         <v>2040401</v>
       </c>
       <c r="F348" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G348" s="1">
         <v>3</v>
       </c>
       <c r="I348" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J348" s="1">
         <v>4</v>
@@ -14070,19 +14080,19 @@
         <v>344</v>
       </c>
       <c r="B349" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D349" s="1">
         <v>2040401</v>
       </c>
       <c r="F349" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G349" s="1">
         <v>3</v>
       </c>
       <c r="I349" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J349" s="1">
         <v>4</v>
@@ -14108,19 +14118,19 @@
         <v>345</v>
       </c>
       <c r="B350" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D350" s="1">
         <v>2040401</v>
       </c>
       <c r="F350" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G350" s="1">
         <v>3</v>
       </c>
       <c r="I350" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J350" s="1">
         <v>4</v>
@@ -14146,19 +14156,19 @@
         <v>346</v>
       </c>
       <c r="B351" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D351" s="1">
         <v>2040401</v>
       </c>
       <c r="F351" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G351" s="1">
         <v>3</v>
       </c>
       <c r="I351" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J351" s="1">
         <v>4</v>
@@ -14184,19 +14194,19 @@
         <v>347</v>
       </c>
       <c r="B352" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D352" s="1">
         <v>2040401</v>
       </c>
       <c r="F352" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G352" s="1">
         <v>3</v>
       </c>
       <c r="I352" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J352" s="1">
         <v>4</v>
@@ -14222,19 +14232,19 @@
         <v>348</v>
       </c>
       <c r="B353" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D353" s="1">
         <v>2040401</v>
       </c>
       <c r="F353" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G353" s="1">
         <v>3</v>
       </c>
       <c r="I353" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J353" s="1">
         <v>4</v>
@@ -14260,19 +14270,19 @@
         <v>349</v>
       </c>
       <c r="B354" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D354" s="1">
         <v>2040401</v>
       </c>
       <c r="F354" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G354" s="1">
         <v>3</v>
       </c>
       <c r="I354" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J354" s="1">
         <v>4</v>
@@ -14298,19 +14308,19 @@
         <v>350</v>
       </c>
       <c r="B355" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D355" s="1">
         <v>2040401</v>
       </c>
       <c r="F355" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G355" s="1">
         <v>3</v>
       </c>
       <c r="I355" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J355" s="1">
         <v>4</v>
@@ -14336,19 +14346,19 @@
         <v>351</v>
       </c>
       <c r="B356" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D356" s="1">
         <v>2040401</v>
       </c>
       <c r="F356" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G356" s="1">
         <v>3</v>
       </c>
       <c r="I356" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J356" s="1">
         <v>4</v>
@@ -14374,19 +14384,19 @@
         <v>352</v>
       </c>
       <c r="B357" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D357" s="1">
         <v>2040401</v>
       </c>
       <c r="F357" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G357" s="1">
         <v>3</v>
       </c>
       <c r="I357" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J357" s="1">
         <v>4</v>
@@ -14412,19 +14422,19 @@
         <v>353</v>
       </c>
       <c r="B358" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D358" s="1">
         <v>2040401</v>
       </c>
       <c r="F358" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G358" s="1">
         <v>3</v>
       </c>
       <c r="I358" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J358" s="1">
         <v>4</v>
@@ -14450,19 +14460,19 @@
         <v>354</v>
       </c>
       <c r="B359" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D359" s="1">
         <v>2040401</v>
       </c>
       <c r="F359" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G359" s="1">
         <v>3</v>
       </c>
       <c r="I359" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J359" s="1">
         <v>4</v>
@@ -14488,19 +14498,19 @@
         <v>355</v>
       </c>
       <c r="B360" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D360" s="1">
         <v>2040401</v>
       </c>
       <c r="F360" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G360" s="1">
         <v>3</v>
       </c>
       <c r="I360" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J360" s="1">
         <v>4</v>
@@ -14526,19 +14536,19 @@
         <v>356</v>
       </c>
       <c r="B361" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D361" s="1">
         <v>2040401</v>
       </c>
       <c r="F361" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G361" s="1">
         <v>3</v>
       </c>
       <c r="I361" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J361" s="1">
         <v>4</v>
@@ -14564,19 +14574,19 @@
         <v>357</v>
       </c>
       <c r="B362" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D362" s="1">
         <v>2040401</v>
       </c>
       <c r="F362" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G362" s="1">
         <v>3</v>
       </c>
       <c r="I362" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J362" s="1">
         <v>4</v>
@@ -14602,19 +14612,19 @@
         <v>358</v>
       </c>
       <c r="B363" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D363" s="1">
         <v>2040401</v>
       </c>
       <c r="F363" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G363" s="1">
         <v>3</v>
       </c>
       <c r="I363" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J363" s="1">
         <v>4</v>
@@ -14640,19 +14650,19 @@
         <v>359</v>
       </c>
       <c r="B364" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D364" s="1">
         <v>2040401</v>
       </c>
       <c r="F364" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G364" s="1">
         <v>7</v>
       </c>
       <c r="I364" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J364" s="1">
         <v>4</v>
@@ -14678,19 +14688,19 @@
         <v>360</v>
       </c>
       <c r="B365" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D365" s="1">
         <v>2040401</v>
       </c>
       <c r="F365" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G365" s="1">
         <v>7</v>
       </c>
       <c r="I365" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J365" s="1">
         <v>4</v>
@@ -14716,19 +14726,19 @@
         <v>361</v>
       </c>
       <c r="B366" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D366" s="1">
         <v>2040401</v>
       </c>
       <c r="F366" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G366" s="1">
         <v>7</v>
       </c>
       <c r="I366" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J366" s="1">
         <v>4</v>
@@ -14754,19 +14764,19 @@
         <v>362</v>
       </c>
       <c r="B367" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D367" s="1">
         <v>2040401</v>
       </c>
       <c r="F367" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G367" s="1">
         <v>7</v>
       </c>
       <c r="I367" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J367" s="1">
         <v>4</v>
@@ -14792,19 +14802,19 @@
         <v>363</v>
       </c>
       <c r="B368" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D368" s="1">
         <v>2040401</v>
       </c>
       <c r="F368" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G368" s="1">
         <v>7</v>
       </c>
       <c r="I368" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J368" s="1">
         <v>4</v>
@@ -14830,19 +14840,19 @@
         <v>364</v>
       </c>
       <c r="B369" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D369" s="1">
         <v>2040401</v>
       </c>
       <c r="F369" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G369" s="1">
         <v>7</v>
       </c>
       <c r="I369" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J369" s="1">
         <v>4</v>
@@ -14868,19 +14878,19 @@
         <v>365</v>
       </c>
       <c r="B370" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D370" s="1">
         <v>2040401</v>
       </c>
       <c r="F370" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G370" s="1">
         <v>7</v>
       </c>
       <c r="I370" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J370" s="1">
         <v>4</v>
@@ -14906,19 +14916,19 @@
         <v>366</v>
       </c>
       <c r="B371" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D371" s="1">
         <v>2040401</v>
       </c>
       <c r="F371" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G371" s="1">
         <v>7</v>
       </c>
       <c r="I371" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J371" s="1">
         <v>4</v>
@@ -14944,19 +14954,19 @@
         <v>367</v>
       </c>
       <c r="B372" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D372" s="1">
         <v>2040401</v>
       </c>
       <c r="F372" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G372" s="1">
         <v>7</v>
       </c>
       <c r="I372" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J372" s="1">
         <v>4</v>
@@ -14982,19 +14992,19 @@
         <v>368</v>
       </c>
       <c r="B373" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D373" s="1">
         <v>2040401</v>
       </c>
       <c r="F373" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G373" s="1">
         <v>7</v>
       </c>
       <c r="I373" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J373" s="1">
         <v>4</v>
